--- a/QuantLibXL/Workbooks/Experimental/CoCo_Kapitalmarktfloater.xlsx
+++ b/QuantLibXL/Workbooks/Experimental/CoCo_Kapitalmarktfloater.xlsx
@@ -520,7 +520,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="189">
   <si>
     <t>Information</t>
   </si>
@@ -745,9 +745,6 @@
   </si>
   <si>
     <t>RecoveryRateIfTriggered</t>
-  </si>
-  <si>
-    <t>Sonderfälle</t>
   </si>
   <si>
     <t>Trigger = 1 und RR = 1 &amp; Margin = CS &amp; Aktie = 1 =&gt; 100</t>
@@ -1072,6 +1069,24 @@
   </si>
   <si>
     <t xml:space="preserve">Trigger = 20 und RR=1 =&gt; keine Sensi gegenüber Callibility </t>
+  </si>
+  <si>
+    <t>Sonderfälle Write down</t>
+  </si>
+  <si>
+    <t>Sonderfälle EQ-Conversion</t>
+  </si>
+  <si>
+    <t>Trigger&gt;&gt;1 -&gt; Wert = Aktienkurs * Conversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barwert Coco &gt; Trigger </t>
+  </si>
+  <si>
+    <t>Div Steigt -&gt; BW runter</t>
+  </si>
+  <si>
+    <t>Vola Steigt -&gt; BW runter</t>
   </si>
 </sst>
 </file>
@@ -2097,6 +2112,13 @@
     <xf numFmtId="175" fontId="0" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="2" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2117,13 +2139,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3503,10 +3518,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="14.25" customHeight="1"/>
     <row r="2" spans="2:3" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="B2" s="146" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="146"/>
+      <c r="B2" s="149" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="149"/>
     </row>
     <row r="3" spans="2:3" ht="52.5" customHeight="1"/>
     <row r="4" spans="2:3">
@@ -3606,10 +3621,10 @@
     </row>
     <row r="17" spans="2:3" s="11" customFormat="1">
       <c r="B17" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -3645,7 +3660,7 @@
         <v>59</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -3726,7 +3741,7 @@
   <sheetData>
     <row r="1" spans="1:30" s="141" customFormat="1" ht="10.5">
       <c r="A1" s="142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AD1" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(C101)</f>
@@ -3736,7 +3751,7 @@
     <row r="4" spans="1:30">
       <c r="A4" s="62" t="str">
         <f>_xll.qlEonia("eoniaIndex")</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" thickBot="1"/>
@@ -3749,7 +3764,7 @@
         <v>66</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="86"/>
       <c r="F6" s="86"/>
@@ -3762,42 +3777,42 @@
     <row r="7" spans="1:30">
       <c r="A7" s="88" t="str">
         <f>_xll.qlDepositRateHelper2(C7,D7,E7,F7,G7,H7,I7,J7)</f>
-        <v>EONIA#0018</v>
+        <v>EONIA#0051</v>
       </c>
       <c r="B7" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A7)</f>
         <v/>
       </c>
       <c r="C7" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" s="91">
         <v>-4.4689999999999999E-3</v>
       </c>
       <c r="E7" s="90" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F7" s="92">
         <v>2</v>
       </c>
       <c r="G7" s="92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" s="92" t="b">
         <v>1</v>
       </c>
       <c r="J7" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K7" s="93"/>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="88" t="str">
         <f>_xll.qlOISRateHelper(C8,K8,E8,D8,J8,,,Trigger)</f>
-        <v>SwapOIS1M#0017</v>
+        <v>SwapOIS1M#0051</v>
       </c>
       <c r="B8" s="89"/>
       <c r="C8" s="90" t="str">
@@ -3808,23 +3823,23 @@
         <v>-4.9300000000000004E-3</v>
       </c>
       <c r="E8" s="90" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F8" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H8" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I8" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J8" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K8" s="93">
         <v>2</v>
@@ -3833,7 +3848,7 @@
     <row r="9" spans="1:30">
       <c r="A9" s="88" t="str">
         <f>_xll.qlOISRateHelper(C9,K9,E9,D9,J9,,,Trigger)</f>
-        <v>SwapOIS2M#0017</v>
+        <v>SwapOIS2M#0051</v>
       </c>
       <c r="B9" s="89"/>
       <c r="C9" s="90" t="str">
@@ -3844,23 +3859,23 @@
         <v>-4.9500000000000004E-3</v>
       </c>
       <c r="E9" s="90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F9" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H9" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J9" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K9" s="93">
         <v>2</v>
@@ -3869,7 +3884,7 @@
     <row r="10" spans="1:30">
       <c r="A10" s="88" t="str">
         <f>_xll.qlOISRateHelper(C10,K10,E10,D10,J10,,,Trigger)</f>
-        <v>SwapOIS3M#0017</v>
+        <v>SwapOIS3M#0051</v>
       </c>
       <c r="B10" s="89"/>
       <c r="C10" s="90" t="str">
@@ -3880,23 +3895,23 @@
         <v>-4.96E-3</v>
       </c>
       <c r="E10" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="92" t="s">
         <v>97</v>
-      </c>
-      <c r="F10" s="92" t="s">
-        <v>98</v>
       </c>
       <c r="G10" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H10" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I10" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J10" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K10" s="93">
         <v>2</v>
@@ -3905,7 +3920,7 @@
     <row r="11" spans="1:30">
       <c r="A11" s="88" t="str">
         <f>_xll.qlOISRateHelper(C11,K11,E11,D11,J11,,,Trigger)</f>
-        <v>SwapOIS4M#0017</v>
+        <v>SwapOIS4M#0051</v>
       </c>
       <c r="B11" s="89"/>
       <c r="C11" s="90" t="str">
@@ -3916,23 +3931,23 @@
         <v>-4.9800000000000001E-3</v>
       </c>
       <c r="E11" s="90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H11" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I11" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J11" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K11" s="93">
         <v>2</v>
@@ -3941,7 +3956,7 @@
     <row r="12" spans="1:30">
       <c r="A12" s="88" t="str">
         <f>_xll.qlOISRateHelper(C12,K12,E12,D12,J12,,,Trigger)</f>
-        <v>SwapOIS5M#0017</v>
+        <v>SwapOIS5M#0051</v>
       </c>
       <c r="B12" s="89"/>
       <c r="C12" s="90" t="str">
@@ -3952,23 +3967,23 @@
         <v>-5.0400000000000002E-3</v>
       </c>
       <c r="E12" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F12" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H12" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J12" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K12" s="93">
         <v>2</v>
@@ -3977,7 +3992,7 @@
     <row r="13" spans="1:30">
       <c r="A13" s="88" t="str">
         <f>_xll.qlOISRateHelper(C13,K13,E13,D13,J13,,,Trigger)</f>
-        <v>SwapOIS6M#0017</v>
+        <v>SwapOIS6M#0051</v>
       </c>
       <c r="B13" s="89"/>
       <c r="C13" s="90" t="str">
@@ -3988,23 +4003,23 @@
         <v>-5.0699999999999999E-3</v>
       </c>
       <c r="E13" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F13" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G13" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H13" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I13" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J13" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K13" s="93">
         <v>2</v>
@@ -4013,7 +4028,7 @@
     <row r="14" spans="1:30">
       <c r="A14" s="88" t="str">
         <f>_xll.qlOISRateHelper(C14,K14,E14,D14,J14,,,Trigger)</f>
-        <v>SwapOIS7M#0017</v>
+        <v>SwapOIS7M#0051</v>
       </c>
       <c r="B14" s="89"/>
       <c r="C14" s="90" t="str">
@@ -4024,23 +4039,23 @@
         <v>-5.1200000000000004E-3</v>
       </c>
       <c r="E14" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F14" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I14" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J14" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K14" s="93">
         <v>2</v>
@@ -4049,7 +4064,7 @@
     <row r="15" spans="1:30">
       <c r="A15" s="88" t="str">
         <f>_xll.qlOISRateHelper(C15,K15,E15,D15,J15,,,Trigger)</f>
-        <v>SwapOIS8M#0017</v>
+        <v>SwapOIS8M#0051</v>
       </c>
       <c r="B15" s="89"/>
       <c r="C15" s="90" t="str">
@@ -4060,23 +4075,23 @@
         <v>-5.1599999999999997E-3</v>
       </c>
       <c r="E15" s="90" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F15" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G15" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H15" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I15" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J15" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K15" s="93">
         <v>2</v>
@@ -4085,7 +4100,7 @@
     <row r="16" spans="1:30">
       <c r="A16" s="88" t="str">
         <f>_xll.qlOISRateHelper(C16,K16,E16,D16,J16,,,Trigger)</f>
-        <v>SwapOIS9M#0017</v>
+        <v>SwapOIS9M#0051</v>
       </c>
       <c r="B16" s="89"/>
       <c r="C16" s="90" t="str">
@@ -4096,23 +4111,23 @@
         <v>-5.1999999999999998E-3</v>
       </c>
       <c r="E16" s="90" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F16" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H16" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J16" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K16" s="93">
         <v>2</v>
@@ -4121,7 +4136,7 @@
     <row r="17" spans="1:11">
       <c r="A17" s="88" t="str">
         <f>_xll.qlOISRateHelper(C17,K17,E17,D17,J17,,,Trigger)</f>
-        <v>SwapOIS10M#0017</v>
+        <v>SwapOIS10M#0051</v>
       </c>
       <c r="B17" s="89"/>
       <c r="C17" s="90" t="str">
@@ -4132,23 +4147,23 @@
         <v>-5.2300000000000003E-3</v>
       </c>
       <c r="E17" s="90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G17" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H17" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I17" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J17" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K17" s="93">
         <v>2</v>
@@ -4157,7 +4172,7 @@
     <row r="18" spans="1:11">
       <c r="A18" s="88" t="str">
         <f>_xll.qlOISRateHelper(C18,K18,E18,D18,J18,,,Trigger)</f>
-        <v>SwapOIS11M#0017</v>
+        <v>SwapOIS11M#0051</v>
       </c>
       <c r="B18" s="89"/>
       <c r="C18" s="90" t="str">
@@ -4168,23 +4183,23 @@
         <v>-5.2599999999999999E-3</v>
       </c>
       <c r="E18" s="90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F18" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G18" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H18" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J18" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K18" s="93">
         <v>2</v>
@@ -4193,7 +4208,7 @@
     <row r="19" spans="1:11">
       <c r="A19" s="88" t="str">
         <f>_xll.qlOISRateHelper(C19,K19,E19,D19,J19,,,Trigger)</f>
-        <v>SwapOIS1Y#0017</v>
+        <v>SwapOIS1Y#0051</v>
       </c>
       <c r="B19" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A19)</f>
@@ -4207,23 +4222,23 @@
         <v>-5.2900000000000004E-3</v>
       </c>
       <c r="E19" s="94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F19" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H19" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I19" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J19" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K19" s="93">
         <v>2</v>
@@ -4232,7 +4247,7 @@
     <row r="20" spans="1:11">
       <c r="A20" s="88" t="str">
         <f>_xll.qlOISRateHelper(C20,K20,E20,D20,J20,,,Trigger)</f>
-        <v>SwapOIS2Y#0017</v>
+        <v>SwapOIS2Y#0051</v>
       </c>
       <c r="B20" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A20)</f>
@@ -4246,23 +4261,23 @@
         <v>-5.5100000000000001E-3</v>
       </c>
       <c r="E20" s="94" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F20" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G20" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H20" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I20" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J20" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K20" s="93">
         <v>2</v>
@@ -4271,7 +4286,7 @@
     <row r="21" spans="1:11">
       <c r="A21" s="88" t="str">
         <f>_xll.qlOISRateHelper(C21,K21,E21,D21,J21,,,Trigger)</f>
-        <v>SwapOIS3Y#0017</v>
+        <v>SwapOIS3Y#0051</v>
       </c>
       <c r="B21" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A21)</f>
@@ -4285,23 +4300,23 @@
         <v>-5.5999999999999999E-3</v>
       </c>
       <c r="E21" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G21" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H21" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I21" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J21" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K21" s="93">
         <v>2</v>
@@ -4310,7 +4325,7 @@
     <row r="22" spans="1:11">
       <c r="A22" s="88" t="str">
         <f>_xll.qlOISRateHelper(C22,K22,E22,D22,J22,,,Trigger)</f>
-        <v>SwapOIS4Y#0017</v>
+        <v>SwapOIS4Y#0051</v>
       </c>
       <c r="B22" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A22)</f>
@@ -4324,23 +4339,23 @@
         <v>-5.5500000000000002E-3</v>
       </c>
       <c r="E22" s="94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F22" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G22" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H22" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I22" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J22" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K22" s="93">
         <v>2</v>
@@ -4349,7 +4364,7 @@
     <row r="23" spans="1:11">
       <c r="A23" s="88" t="str">
         <f>_xll.qlOISRateHelper(C23,K23,E23,D23,J23,,,Trigger)</f>
-        <v>SwapOIS5Y#0017</v>
+        <v>SwapOIS5Y#0051</v>
       </c>
       <c r="B23" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A23)</f>
@@ -4363,23 +4378,23 @@
         <v>-5.4099999999999999E-3</v>
       </c>
       <c r="E23" s="94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F23" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H23" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I23" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J23" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K23" s="93">
         <v>2</v>
@@ -4388,7 +4403,7 @@
     <row r="24" spans="1:11">
       <c r="A24" s="88" t="str">
         <f>_xll.qlOISRateHelper(C24,K24,E24,D24,J24,,,Trigger)</f>
-        <v>SwapOIS6Y#0017</v>
+        <v>SwapOIS6Y#0051</v>
       </c>
       <c r="B24" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A24)</f>
@@ -4402,23 +4417,23 @@
         <v>-5.1500000000000001E-3</v>
       </c>
       <c r="E24" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F24" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G24" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H24" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I24" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J24" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K24" s="93">
         <v>2</v>
@@ -4427,7 +4442,7 @@
     <row r="25" spans="1:11">
       <c r="A25" s="88" t="str">
         <f>_xll.qlOISRateHelper(C25,K25,E25,D25,J25,,,Trigger)</f>
-        <v>SwapOIS7Y#0017</v>
+        <v>SwapOIS7Y#0051</v>
       </c>
       <c r="B25" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A25)</f>
@@ -4441,23 +4456,23 @@
         <v>-4.8700000000000002E-3</v>
       </c>
       <c r="E25" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G25" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H25" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I25" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J25" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K25" s="93">
         <v>2</v>
@@ -4466,7 +4481,7 @@
     <row r="26" spans="1:11">
       <c r="A26" s="88" t="str">
         <f>_xll.qlOISRateHelper(C26,K26,E26,D26,J26,,,Trigger)</f>
-        <v>SwapOIS8Y#0017</v>
+        <v>SwapOIS8Y#0051</v>
       </c>
       <c r="B26" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A26)</f>
@@ -4480,23 +4495,23 @@
         <v>-4.5199999999999997E-3</v>
       </c>
       <c r="E26" s="94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G26" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H26" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I26" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J26" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K26" s="93">
         <v>2</v>
@@ -4505,7 +4520,7 @@
     <row r="27" spans="1:11">
       <c r="A27" s="88" t="str">
         <f>_xll.qlOISRateHelper(C27,K27,E27,D27,J27,,,Trigger)</f>
-        <v>SwapOIS9Y#0017</v>
+        <v>SwapOIS9Y#0051</v>
       </c>
       <c r="B27" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A27)</f>
@@ -4519,23 +4534,23 @@
         <v>-4.15E-3</v>
       </c>
       <c r="E27" s="94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G27" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H27" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I27" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J27" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K27" s="93">
         <v>2</v>
@@ -4544,7 +4559,7 @@
     <row r="28" spans="1:11">
       <c r="A28" s="88" t="str">
         <f>_xll.qlOISRateHelper(C28,K28,E28,D28,J28,,,Trigger)</f>
-        <v>SwapOIS10Y#0017</v>
+        <v>SwapOIS10Y#0051</v>
       </c>
       <c r="B28" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A28)</f>
@@ -4558,23 +4573,23 @@
         <v>-3.7599999999999999E-3</v>
       </c>
       <c r="E28" s="94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F28" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G28" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H28" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I28" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J28" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K28" s="93">
         <v>2</v>
@@ -4583,7 +4598,7 @@
     <row r="29" spans="1:11">
       <c r="A29" s="88" t="str">
         <f>_xll.qlOISRateHelper(C29,K29,E29,D29,J29,,,Trigger)</f>
-        <v>SwapOIS15Y#0017</v>
+        <v>SwapOIS15Y#0051</v>
       </c>
       <c r="B29" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A29)</f>
@@ -4597,23 +4612,23 @@
         <v>-1.9400000000000001E-3</v>
       </c>
       <c r="E29" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F29" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G29" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H29" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I29" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J29" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K29" s="93">
         <v>2</v>
@@ -4622,7 +4637,7 @@
     <row r="30" spans="1:11">
       <c r="A30" s="88" t="str">
         <f>_xll.qlOISRateHelper(C30,K30,E30,D30,J30,,,Trigger)</f>
-        <v>SwapOIS20Y#0017</v>
+        <v>SwapOIS20Y#0051</v>
       </c>
       <c r="B30" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A30)</f>
@@ -4636,23 +4651,23 @@
         <v>-1.2199999999999999E-3</v>
       </c>
       <c r="E30" s="94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F30" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G30" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H30" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J30" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K30" s="93">
         <v>2</v>
@@ -4661,7 +4676,7 @@
     <row r="31" spans="1:11">
       <c r="A31" s="88" t="str">
         <f>_xll.qlOISRateHelper(C31,K31,E31,D31,J31,,,Trigger)</f>
-        <v>SwapOIS25Y#0017</v>
+        <v>SwapOIS25Y#0051</v>
       </c>
       <c r="B31" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A31)</f>
@@ -4675,23 +4690,23 @@
         <v>-1.2999999999999999E-3</v>
       </c>
       <c r="E31" s="94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F31" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G31" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H31" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J31" s="139" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K31" s="93">
         <v>2</v>
@@ -4700,7 +4715,7 @@
     <row r="32" spans="1:11" ht="15" thickBot="1">
       <c r="A32" s="95" t="str">
         <f>_xll.qlOISRateHelper(C32,K32,E32,D32,J32,,,Trigger)</f>
-        <v>SwapOIS30Y#0017</v>
+        <v>SwapOIS30Y#0051</v>
       </c>
       <c r="B32" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(A32)</f>
@@ -4714,23 +4729,23 @@
         <v>-1.6199999999999999E-3</v>
       </c>
       <c r="E32" s="99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F32" s="100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G32" s="100" t="s">
         <v>70</v>
       </c>
       <c r="H32" s="97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I32" s="100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J32" s="140" t="str">
         <f>$A$4</f>
-        <v>eoniaIndex#0018</v>
+        <v>eoniaIndex#0051</v>
       </c>
       <c r="K32" s="101">
         <v>2</v>
@@ -4738,25 +4753,25 @@
     </row>
     <row r="35" spans="1:3" s="141" customFormat="1" ht="10.5">
       <c r="A35" s="142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1"/>
     <row r="37" spans="1:3">
       <c r="A37" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="103" t="s">
+      <c r="C37" s="104" t="s">
         <v>114</v>
-      </c>
-      <c r="C37" s="104" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="105" t="str">
         <f t="array" ref="A38:A67">A7:A32</f>
-        <v>EONIA#0018</v>
+        <v>EONIA#0051</v>
       </c>
       <c r="B38" s="107">
         <v>1</v>
@@ -4768,7 +4783,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="105" t="str">
-        <v>SwapOIS1M#0017</v>
+        <v>SwapOIS1M#0051</v>
       </c>
       <c r="B39" s="107">
         <v>1</v>
@@ -4779,7 +4794,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="105" t="str">
-        <v>SwapOIS2M#0017</v>
+        <v>SwapOIS2M#0051</v>
       </c>
       <c r="B40" s="107">
         <v>1</v>
@@ -4790,7 +4805,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="105" t="str">
-        <v>SwapOIS3M#0017</v>
+        <v>SwapOIS3M#0051</v>
       </c>
       <c r="B41" s="107">
         <v>1</v>
@@ -4801,7 +4816,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="105" t="str">
-        <v>SwapOIS4M#0017</v>
+        <v>SwapOIS4M#0051</v>
       </c>
       <c r="B42" s="107">
         <v>1</v>
@@ -4812,7 +4827,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="105" t="str">
-        <v>SwapOIS5M#0017</v>
+        <v>SwapOIS5M#0051</v>
       </c>
       <c r="B43" s="107">
         <v>1</v>
@@ -4823,7 +4838,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="105" t="str">
-        <v>SwapOIS6M#0017</v>
+        <v>SwapOIS6M#0051</v>
       </c>
       <c r="B44" s="107">
         <v>1</v>
@@ -4834,7 +4849,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="105" t="str">
-        <v>SwapOIS7M#0017</v>
+        <v>SwapOIS7M#0051</v>
       </c>
       <c r="B45" s="107">
         <v>1</v>
@@ -4845,7 +4860,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="105" t="str">
-        <v>SwapOIS8M#0017</v>
+        <v>SwapOIS8M#0051</v>
       </c>
       <c r="B46" s="107">
         <v>1</v>
@@ -4856,7 +4871,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="105" t="str">
-        <v>SwapOIS9M#0017</v>
+        <v>SwapOIS9M#0051</v>
       </c>
       <c r="B47" s="107">
         <v>1</v>
@@ -4867,7 +4882,7 @@
     </row>
     <row r="48" spans="1:3" ht="10" customHeight="1">
       <c r="A48" s="105" t="str">
-        <v>SwapOIS10M#0017</v>
+        <v>SwapOIS10M#0051</v>
       </c>
       <c r="B48" s="107">
         <v>1</v>
@@ -4878,7 +4893,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="105" t="str">
-        <v>SwapOIS11M#0017</v>
+        <v>SwapOIS11M#0051</v>
       </c>
       <c r="B49" s="107">
         <v>1</v>
@@ -4889,7 +4904,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="105" t="str">
-        <v>SwapOIS1Y#0017</v>
+        <v>SwapOIS1Y#0051</v>
       </c>
       <c r="B50" s="107">
         <v>1</v>
@@ -4900,7 +4915,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="105" t="str">
-        <v>SwapOIS2Y#0017</v>
+        <v>SwapOIS2Y#0051</v>
       </c>
       <c r="B51" s="107">
         <v>1</v>
@@ -4911,7 +4926,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="105" t="str">
-        <v>SwapOIS3Y#0017</v>
+        <v>SwapOIS3Y#0051</v>
       </c>
       <c r="B52" s="107">
         <v>1</v>
@@ -4922,7 +4937,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="105" t="str">
-        <v>SwapOIS4Y#0017</v>
+        <v>SwapOIS4Y#0051</v>
       </c>
       <c r="B53" s="107">
         <v>1</v>
@@ -4933,7 +4948,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="105" t="str">
-        <v>SwapOIS5Y#0017</v>
+        <v>SwapOIS5Y#0051</v>
       </c>
       <c r="B54" s="107">
         <v>1</v>
@@ -4944,7 +4959,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="105" t="str">
-        <v>SwapOIS6Y#0017</v>
+        <v>SwapOIS6Y#0051</v>
       </c>
       <c r="B55" s="107">
         <v>1</v>
@@ -4955,7 +4970,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="105" t="str">
-        <v>SwapOIS7Y#0017</v>
+        <v>SwapOIS7Y#0051</v>
       </c>
       <c r="B56" s="107">
         <v>1</v>
@@ -4966,7 +4981,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="105" t="str">
-        <v>SwapOIS8Y#0017</v>
+        <v>SwapOIS8Y#0051</v>
       </c>
       <c r="B57" s="107">
         <v>1</v>
@@ -4977,7 +4992,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="105" t="str">
-        <v>SwapOIS9Y#0017</v>
+        <v>SwapOIS9Y#0051</v>
       </c>
       <c r="B58" s="107">
         <v>1</v>
@@ -4988,7 +5003,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="105" t="str">
-        <v>SwapOIS10Y#0017</v>
+        <v>SwapOIS10Y#0051</v>
       </c>
       <c r="B59" s="107">
         <v>1</v>
@@ -4999,7 +5014,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="105" t="str">
-        <v>SwapOIS15Y#0017</v>
+        <v>SwapOIS15Y#0051</v>
       </c>
       <c r="B60" s="107">
         <v>1</v>
@@ -5010,7 +5025,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="105" t="str">
-        <v>SwapOIS20Y#0017</v>
+        <v>SwapOIS20Y#0051</v>
       </c>
       <c r="B61" s="107">
         <v>1</v>
@@ -5021,7 +5036,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="105" t="str">
-        <v>SwapOIS25Y#0017</v>
+        <v>SwapOIS25Y#0051</v>
       </c>
       <c r="B62" s="107">
         <v>1</v>
@@ -5032,7 +5047,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="105" t="str">
-        <v>SwapOIS30Y#0017</v>
+        <v>SwapOIS30Y#0051</v>
       </c>
       <c r="B63" s="107">
         <v>1</v>
@@ -5080,7 +5095,7 @@
     <row r="68" spans="1:3" ht="15" thickBot="1"/>
     <row r="69" spans="1:3">
       <c r="A69" s="111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B69" s="112">
         <v>8</v>
@@ -5088,7 +5103,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B70" s="114">
         <v>0</v>
@@ -5096,7 +5111,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B71" s="114">
         <v>3</v>
@@ -5104,10 +5119,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" s="115" t="s">
         <v>119</v>
-      </c>
-      <c r="B72" s="115" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" thickBot="1">
@@ -5124,11 +5139,11 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="111" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B75" s="119" t="str">
         <f>_xll.qlPiecewiseYieldCurve(B77,B78,B79,_xll.ohPack(C38:C67),B80,,,B83,B81,B82,B84,B85)</f>
-        <v>obj_00069#0017</v>
+        <v>obj_0001b#0051</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" thickBot="1">
@@ -5159,7 +5174,7 @@
         <v>68</v>
       </c>
       <c r="B79" s="115" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5170,23 +5185,23 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="113" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="115" t="s">
         <v>122</v>
-      </c>
-      <c r="B81" s="115" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="113" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" s="115" t="s">
         <v>124</v>
-      </c>
-      <c r="B82" s="115" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B83" s="115"/>
     </row>
@@ -5208,7 +5223,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="123" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B87" s="124" t="str">
         <f>_xll.qlTermStructureCalendar(B75)</f>
@@ -5217,7 +5232,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B88" s="126" t="str">
         <f>_xll.qlTermStructureDayCounter(B75)</f>
@@ -5226,7 +5241,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B89" s="127">
         <f>_xll.qlTermStructureReferenceDate(B75)</f>
@@ -5235,7 +5250,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="125" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90" s="127">
         <f>_xll.qlTermStructureMaxDate(B75)</f>
@@ -5244,7 +5259,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B91" s="129">
         <f>_xll.qlTermStructureSettlementDays(B75)</f>
@@ -5253,7 +5268,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B92" s="131">
         <f>_xll.qlYieldTSDiscount(B75,B89)</f>
@@ -5262,7 +5277,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="125" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93" s="132">
         <f>_xll.qlYieldTSForwardRate(B75,B89,B89+90,B88,"simple","annual")</f>
@@ -5271,7 +5286,7 @@
     </row>
     <row r="94" spans="1:2" ht="15" thickBot="1">
       <c r="A94" s="133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94" s="134">
         <f>_xll.qlYieldTSZeroRate(B75,B89,B88,"simple","annual")</f>
@@ -5280,7 +5295,7 @@
     </row>
     <row r="97" spans="1:7" s="141" customFormat="1" ht="10.5">
       <c r="A97" s="142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" thickBot="1"/>
@@ -5298,25 +5313,25 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="B100" s="104" t="s">
+      <c r="C100" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="C100" s="118" t="s">
+      <c r="D100" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="D100" s="118" t="s">
+      <c r="E100" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="E100" s="118" t="s">
+      <c r="F100" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="F100" s="118" t="s">
+      <c r="G100" s="118" t="s">
         <v>140</v>
-      </c>
-      <c r="G100" s="118" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -6069,11 +6084,11 @@
     <row r="132" spans="1:7">
       <c r="E132" s="119" t="str">
         <f>_xll.qlZeroCurve(E100,A101:A116,E101:E116,"act/act")</f>
-        <v>RiskyZeroCurve#0017</v>
+        <v>RiskyZeroCurve#0051</v>
       </c>
       <c r="G132" s="119" t="str">
         <f>_xll.qlZeroCurve(G100,A101:A116,F101:F116,"act/act")</f>
-        <v>BPRiskyZeroCurve#0017</v>
+        <v>BPRiskyZeroCurve#0051</v>
       </c>
     </row>
   </sheetData>
@@ -6154,7 +6169,7 @@
   <sheetData>
     <row r="1" spans="1:31" s="141" customFormat="1" ht="10.5">
       <c r="A1" s="142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AE1" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(C90)</f>
@@ -6164,7 +6179,7 @@
     <row r="4" spans="1:31">
       <c r="A4" s="62" t="str">
         <f>_xll.qlIborIndex("EuriborBootstrap",,A125,2,"EUR","Target","unadjusted",FALSE,A124)</f>
-        <v>EuriborBootstrap#0018</v>
+        <v>EuriborBootstrap#0051</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="15" thickBot="1"/>
@@ -6177,7 +6192,7 @@
         <v>66</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="86"/>
       <c r="F6" s="86"/>
@@ -6191,7 +6206,7 @@
     <row r="7" spans="1:31">
       <c r="A7" s="88" t="str">
         <f>_xll.qlDepositRateHelper2(C7,D7,E7,F7,G7,H7,I7,J7)</f>
-        <v>Depo3M#0018</v>
+        <v>Depo3M#0051</v>
       </c>
       <c r="B7" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A7)</f>
@@ -6205,22 +6220,22 @@
         <v>-4.4689999999999999E-3</v>
       </c>
       <c r="E7" s="90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" s="92">
         <v>2</v>
       </c>
       <c r="G7" s="92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" s="92" t="b">
         <v>1</v>
       </c>
       <c r="J7" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K7" s="91"/>
       <c r="L7" s="93"/>
@@ -6228,7 +6243,7 @@
     <row r="8" spans="1:31">
       <c r="A8" s="88" t="str">
         <f>_xll.qlSwapRateHelper2(C8,D8,2,E8,F8,G8,H8,I8,J8,K8,L8,RiskFreeCurve!$B$75)</f>
-        <v>Swap1Y#0017</v>
+        <v>Swap1Y#0051</v>
       </c>
       <c r="B8" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A8)</f>
@@ -6242,35 +6257,35 @@
         <v>-4.7499999999999999E-3</v>
       </c>
       <c r="E8" s="94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F8" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H8" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I8" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J8" s="139" t="str">
         <f>$A$4</f>
-        <v>EuriborBootstrap#0018</v>
+        <v>EuriborBootstrap#0051</v>
       </c>
       <c r="K8" s="91">
         <v>0</v>
       </c>
       <c r="L8" s="93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="88" t="str">
         <f>_xll.qlSwapRateHelper2(C9,D9,2,E9,F9,G9,H9,I9,J9,K9,L9,RiskFreeCurve!$B$75)</f>
-        <v>Swap2Y#0017</v>
+        <v>Swap2Y#0051</v>
       </c>
       <c r="B9" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A9)</f>
@@ -6284,35 +6299,35 @@
         <v>-4.9300000000000004E-3</v>
       </c>
       <c r="E9" s="94" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F9" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H9" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J9" s="139" t="str">
         <f>$A$4</f>
-        <v>EuriborBootstrap#0018</v>
+        <v>EuriborBootstrap#0051</v>
       </c>
       <c r="K9" s="91">
         <v>0</v>
       </c>
       <c r="L9" s="93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="88" t="str">
         <f>_xll.qlSwapRateHelper2(C10,D10,2,E10,F10,G10,H10,I10,J10,K10,L10,RiskFreeCurve!$B$75)</f>
-        <v>Swap3Y#0017</v>
+        <v>Swap3Y#0051</v>
       </c>
       <c r="B10" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A10)</f>
@@ -6326,35 +6341,35 @@
         <v>-4.8500000000000001E-3</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H10" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I10" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J10" s="139" t="str">
         <f>$A$4</f>
-        <v>EuriborBootstrap#0018</v>
+        <v>EuriborBootstrap#0051</v>
       </c>
       <c r="K10" s="91">
         <v>0</v>
       </c>
       <c r="L10" s="93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="88" t="str">
         <f>_xll.qlSwapRateHelper2(C11,D11,2,E11,F11,G11,H11,I11,J11,K11,L11,RiskFreeCurve!$B$75)</f>
-        <v>Swap4Y#0017</v>
+        <v>Swap4Y#0051</v>
       </c>
       <c r="B11" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A11)</f>
@@ -6368,35 +6383,35 @@
         <v>-4.7200000000000002E-3</v>
       </c>
       <c r="E11" s="94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H11" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I11" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J11" s="139" t="str">
         <f>$A$4</f>
-        <v>EuriborBootstrap#0018</v>
+        <v>EuriborBootstrap#0051</v>
       </c>
       <c r="K11" s="91">
         <v>0</v>
       </c>
       <c r="L11" s="93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="88" t="str">
         <f>_xll.qlSwapRateHelper2(C12,D12,2,E12,F12,G12,H12,I12,J12,K12,L12,RiskFreeCurve!$B$75)</f>
-        <v>Swap5Y#0017</v>
+        <v>Swap5Y#0051</v>
       </c>
       <c r="B12" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A12)</f>
@@ -6410,35 +6425,35 @@
         <v>-4.5300000000000002E-3</v>
       </c>
       <c r="E12" s="94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F12" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H12" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J12" s="139" t="str">
         <f>$A$4</f>
-        <v>EuriborBootstrap#0018</v>
+        <v>EuriborBootstrap#0051</v>
       </c>
       <c r="K12" s="91">
         <v>0</v>
       </c>
       <c r="L12" s="93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="88" t="str">
         <f>_xll.qlSwapRateHelper2(C13,D13,2,E13,F13,G13,H13,I13,J13,K13,L13,RiskFreeCurve!$B$75)</f>
-        <v>Swap6Y#0017</v>
+        <v>Swap6Y#0051</v>
       </c>
       <c r="B13" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A13)</f>
@@ -6452,35 +6467,35 @@
         <v>-4.2500000000000003E-3</v>
       </c>
       <c r="E13" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F13" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G13" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H13" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I13" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J13" s="139" t="str">
         <f>$A$4</f>
-        <v>EuriborBootstrap#0018</v>
+        <v>EuriborBootstrap#0051</v>
       </c>
       <c r="K13" s="91">
         <v>0</v>
       </c>
       <c r="L13" s="93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="88" t="str">
         <f>_xll.qlSwapRateHelper2(C14,D14,2,E14,F14,G14,H14,I14,J14,K14,L14,RiskFreeCurve!$B$75)</f>
-        <v>Swap7Y#0017</v>
+        <v>Swap7Y#0051</v>
       </c>
       <c r="B14" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A14)</f>
@@ -6494,35 +6509,35 @@
         <v>-3.9300000000000003E-3</v>
       </c>
       <c r="E14" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I14" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J14" s="139" t="str">
         <f>$A$4</f>
-        <v>EuriborBootstrap#0018</v>
+        <v>EuriborBootstrap#0051</v>
       </c>
       <c r="K14" s="91">
         <v>0</v>
       </c>
       <c r="L14" s="93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="88" t="str">
         <f>_xll.qlSwapRateHelper2(C15,D15,2,E15,F15,G15,H15,I15,J15,K15,L15,RiskFreeCurve!$B$75)</f>
-        <v>Swap8Y#0017</v>
+        <v>Swap8Y#0051</v>
       </c>
       <c r="B15" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A15)</f>
@@ -6536,35 +6551,35 @@
         <v>-3.5899999999999999E-3</v>
       </c>
       <c r="E15" s="94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G15" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H15" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I15" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J15" s="139" t="str">
         <f>$A$4</f>
-        <v>EuriborBootstrap#0018</v>
+        <v>EuriborBootstrap#0051</v>
       </c>
       <c r="K15" s="91">
         <v>0</v>
       </c>
       <c r="L15" s="93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="88" t="str">
         <f>_xll.qlSwapRateHelper2(C16,D16,2,E16,F16,G16,H16,I16,J16,K16,L16,RiskFreeCurve!$B$75)</f>
-        <v>Swap9Y#0017</v>
+        <v>Swap9Y#0051</v>
       </c>
       <c r="B16" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A16)</f>
@@ -6578,35 +6593,35 @@
         <v>-3.2000000000000002E-3</v>
       </c>
       <c r="E16" s="94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H16" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J16" s="139" t="str">
         <f>$A$4</f>
-        <v>EuriborBootstrap#0018</v>
+        <v>EuriborBootstrap#0051</v>
       </c>
       <c r="K16" s="91">
         <v>0</v>
       </c>
       <c r="L16" s="93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="88" t="str">
         <f>_xll.qlSwapRateHelper2(C17,D17,2,E17,F17,G17,H17,I17,J17,K17,L17,RiskFreeCurve!$B$75)</f>
-        <v>Swap10Y#0017</v>
+        <v>Swap10Y#0051</v>
       </c>
       <c r="B17" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A17)</f>
@@ -6620,35 +6635,35 @@
         <v>-2.7799999999999999E-3</v>
       </c>
       <c r="E17" s="94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G17" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H17" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I17" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J17" s="139" t="str">
         <f>$A$4</f>
-        <v>EuriborBootstrap#0018</v>
+        <v>EuriborBootstrap#0051</v>
       </c>
       <c r="K17" s="91">
         <v>0</v>
       </c>
       <c r="L17" s="93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="88" t="str">
         <f>_xll.qlSwapRateHelper2(C18,D18,2,E18,F18,G18,H18,I18,J18,K18,L18,RiskFreeCurve!$B$75)</f>
-        <v>Swap15Y#0017</v>
+        <v>Swap15Y#0051</v>
       </c>
       <c r="B18" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A18)</f>
@@ -6662,35 +6677,35 @@
         <v>-9.3999999999999997E-4</v>
       </c>
       <c r="E18" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F18" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G18" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H18" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J18" s="139" t="str">
         <f>$A$4</f>
-        <v>EuriborBootstrap#0018</v>
+        <v>EuriborBootstrap#0051</v>
       </c>
       <c r="K18" s="91">
         <v>0</v>
       </c>
       <c r="L18" s="93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="88" t="str">
         <f>_xll.qlSwapRateHelper2(C19,D19,2,E19,F19,G19,H19,I19,J19,K19,L19,RiskFreeCurve!$B$75)</f>
-        <v>Swap20Y#0017</v>
+        <v>Swap20Y#0051</v>
       </c>
       <c r="B19" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A19)</f>
@@ -6704,35 +6719,35 @@
         <v>-2.1000000000000001E-4</v>
       </c>
       <c r="E19" s="94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H19" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I19" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J19" s="139" t="str">
         <f>$A$4</f>
-        <v>EuriborBootstrap#0018</v>
+        <v>EuriborBootstrap#0051</v>
       </c>
       <c r="K19" s="91">
         <v>0</v>
       </c>
       <c r="L19" s="93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="88" t="str">
         <f>_xll.qlSwapRateHelper2(C20,D20,2,E20,F20,G20,H20,I20,J20,K20,L20,RiskFreeCurve!$B$75)</f>
-        <v>Swap25Y#0017</v>
+        <v>Swap25Y#0051</v>
       </c>
       <c r="B20" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(A20)</f>
@@ -6746,35 +6761,35 @@
         <v>-2.7999999999999998E-4</v>
       </c>
       <c r="E20" s="94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F20" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G20" s="92" t="s">
         <v>70</v>
       </c>
       <c r="H20" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I20" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J20" s="139" t="str">
         <f>$A$4</f>
-        <v>EuriborBootstrap#0018</v>
+        <v>EuriborBootstrap#0051</v>
       </c>
       <c r="K20" s="91">
         <v>0</v>
       </c>
       <c r="L20" s="93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1">
       <c r="A21" s="95" t="str">
         <f>_xll.qlSwapRateHelper2(C21,D21,2,E21,F21,G21,H21,I21,J21,K21,L21,RiskFreeCurve!$B$75)</f>
-        <v>Swap30Y#0017</v>
+        <v>Swap30Y#0051</v>
       </c>
       <c r="B21" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(A21)</f>
@@ -6788,52 +6803,52 @@
         <v>-6.2E-4</v>
       </c>
       <c r="E21" s="99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G21" s="100" t="s">
         <v>70</v>
       </c>
       <c r="H21" s="97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I21" s="100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J21" s="140" t="str">
         <f>$A$4</f>
-        <v>EuriborBootstrap#0018</v>
+        <v>EuriborBootstrap#0051</v>
       </c>
       <c r="K21" s="98">
         <v>0</v>
       </c>
       <c r="L21" s="101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="141" customFormat="1" ht="10.5">
       <c r="A24" s="142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" thickBot="1"/>
     <row r="26" spans="1:12">
       <c r="A26" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="103" t="s">
+      <c r="C26" s="104" t="s">
         <v>114</v>
-      </c>
-      <c r="C26" s="104" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="105" t="str">
         <f t="array" ref="A27:A56">A7:A21</f>
-        <v>Depo3M#0018</v>
+        <v>Depo3M#0051</v>
       </c>
       <c r="B27" s="107">
         <v>1</v>
@@ -6845,7 +6860,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="105" t="str">
-        <v>Swap1Y#0017</v>
+        <v>Swap1Y#0051</v>
       </c>
       <c r="B28" s="107">
         <v>1</v>
@@ -6856,7 +6871,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="105" t="str">
-        <v>Swap2Y#0017</v>
+        <v>Swap2Y#0051</v>
       </c>
       <c r="B29" s="107">
         <v>1</v>
@@ -6867,7 +6882,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="105" t="str">
-        <v>Swap3Y#0017</v>
+        <v>Swap3Y#0051</v>
       </c>
       <c r="B30" s="107">
         <v>1</v>
@@ -6878,7 +6893,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="105" t="str">
-        <v>Swap4Y#0017</v>
+        <v>Swap4Y#0051</v>
       </c>
       <c r="B31" s="107">
         <v>1</v>
@@ -6889,7 +6904,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="105" t="str">
-        <v>Swap5Y#0017</v>
+        <v>Swap5Y#0051</v>
       </c>
       <c r="B32" s="107">
         <v>1</v>
@@ -6900,7 +6915,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="105" t="str">
-        <v>Swap6Y#0017</v>
+        <v>Swap6Y#0051</v>
       </c>
       <c r="B33" s="107">
         <v>1</v>
@@ -6911,7 +6926,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="105" t="str">
-        <v>Swap7Y#0017</v>
+        <v>Swap7Y#0051</v>
       </c>
       <c r="B34" s="107">
         <v>1</v>
@@ -6922,7 +6937,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="105" t="str">
-        <v>Swap8Y#0017</v>
+        <v>Swap8Y#0051</v>
       </c>
       <c r="B35" s="107">
         <v>1</v>
@@ -6933,7 +6948,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="105" t="str">
-        <v>Swap9Y#0017</v>
+        <v>Swap9Y#0051</v>
       </c>
       <c r="B36" s="107">
         <v>1</v>
@@ -6944,7 +6959,7 @@
     </row>
     <row r="37" spans="1:3" ht="10" customHeight="1">
       <c r="A37" s="105" t="str">
-        <v>Swap10Y#0017</v>
+        <v>Swap10Y#0051</v>
       </c>
       <c r="B37" s="107">
         <v>1</v>
@@ -6955,7 +6970,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="105" t="str">
-        <v>Swap15Y#0017</v>
+        <v>Swap15Y#0051</v>
       </c>
       <c r="B38" s="107">
         <v>1</v>
@@ -6966,7 +6981,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="105" t="str">
-        <v>Swap20Y#0017</v>
+        <v>Swap20Y#0051</v>
       </c>
       <c r="B39" s="107">
         <v>1</v>
@@ -6977,7 +6992,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="105" t="str">
-        <v>Swap25Y#0017</v>
+        <v>Swap25Y#0051</v>
       </c>
       <c r="B40" s="107">
         <v>1</v>
@@ -6988,7 +7003,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="105" t="str">
-        <v>Swap30Y#0017</v>
+        <v>Swap30Y#0051</v>
       </c>
       <c r="B41" s="107">
         <v>1</v>
@@ -7135,7 +7150,7 @@
     <row r="57" spans="1:3" ht="15" thickBot="1"/>
     <row r="58" spans="1:3">
       <c r="A58" s="111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58" s="112">
         <v>8</v>
@@ -7143,7 +7158,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B59" s="114">
         <v>0</v>
@@ -7151,7 +7166,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60" s="114">
         <v>3</v>
@@ -7159,10 +7174,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="115" t="s">
         <v>119</v>
-      </c>
-      <c r="B61" s="115" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" thickBot="1">
@@ -7179,11 +7194,11 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="111" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64" s="119" t="str">
         <f>_xll.qlPiecewiseYieldCurve(B66,B67,B68,_xll.ohPack(C27:C56),B69,,,B72,B70,B71,B73,B74)</f>
-        <v>obj_0007a#0017</v>
+        <v>obj_0002e#0051</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" thickBot="1">
@@ -7214,7 +7229,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="115" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -7225,23 +7240,23 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="113" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="115" t="s">
         <v>122</v>
-      </c>
-      <c r="B70" s="115" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="113" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="115" t="s">
         <v>124</v>
-      </c>
-      <c r="B71" s="115" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B72" s="115"/>
     </row>
@@ -7263,7 +7278,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="123" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B76" s="124" t="str">
         <f>_xll.qlTermStructureCalendar(B64)</f>
@@ -7272,7 +7287,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B77" s="126" t="str">
         <f>_xll.qlTermStructureDayCounter(B64)</f>
@@ -7281,7 +7296,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B78" s="127">
         <f>_xll.qlTermStructureReferenceDate(B64)</f>
@@ -7290,7 +7305,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="125" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B79" s="127">
         <f>_xll.qlTermStructureMaxDate(B64)</f>
@@ -7299,7 +7314,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B80" s="129">
         <f>_xll.qlTermStructureSettlementDays(B64)</f>
@@ -7308,7 +7323,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B81" s="131">
         <f>_xll.qlYieldTSDiscount(B64,B78)</f>
@@ -7317,7 +7332,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="125" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B82" s="132">
         <f>_xll.qlYieldTSForwardRate(B64,B78,B78+90,B77,"simple","annual")</f>
@@ -7326,7 +7341,7 @@
     </row>
     <row r="83" spans="1:7" ht="15" thickBot="1">
       <c r="A83" s="133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B83" s="134">
         <f>_xll.qlYieldTSZeroRate(B64,B78,B77,"simple","annual")</f>
@@ -7335,7 +7350,7 @@
     </row>
     <row r="86" spans="1:7" s="141" customFormat="1" ht="10.5">
       <c r="A86" s="142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" thickBot="1"/>
@@ -7353,25 +7368,25 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="B89" s="104" t="s">
+      <c r="C89" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="C89" s="118" t="s">
+      <c r="D89" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="D89" s="118" t="s">
+      <c r="E89" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="E89" s="118" t="s">
+      <c r="F89" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="F89" s="118" t="s">
+      <c r="G89" s="118" t="s">
         <v>140</v>
-      </c>
-      <c r="G89" s="118" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -8135,7 +8150,7 @@
     <row r="123" spans="1:7" ht="15" thickBot="1">
       <c r="A123" s="52" t="str">
         <f>_xll.qlIborIndex("Euribor",,A125,2,"EUR","Target","unadjusted",FALSE,A124,B64)</f>
-        <v>Euribor#0017</v>
+        <v>Euribor#0051</v>
       </c>
       <c r="B123" s="53">
         <v>44077</v>
@@ -8146,7 +8161,7 @@
     </row>
     <row r="124" spans="1:7" ht="15" thickBot="1">
       <c r="A124" s="143" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B124" s="53">
         <v>43985</v>
@@ -8157,7 +8172,7 @@
     </row>
     <row r="125" spans="1:7" ht="15" thickBot="1">
       <c r="A125" s="143" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B125" s="55" t="s">
         <v>72</v>
@@ -8209,8 +8224,8 @@
   </sheetPr>
   <dimension ref="B1:BI99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -8224,7 +8239,7 @@
     <col min="7" max="7" width="36.26953125" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.6328125" style="12" customWidth="1"/>
     <col min="9" max="9" width="86.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="65.90625" style="12" customWidth="1"/>
     <col min="11" max="11" width="24.81640625" style="12" customWidth="1"/>
     <col min="12" max="12" width="19.81640625" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.90625" style="12"/>
@@ -8256,119 +8271,134 @@
     </row>
     <row r="3" spans="2:61">
       <c r="I3" s="58" t="s">
-        <v>75</v>
+        <v>183</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="2:61">
       <c r="I4" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="2:61">
       <c r="I5" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="2:61">
       <c r="I6" s="58" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="2:61">
       <c r="I7" s="58" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:61">
-      <c r="I8" s="155" t="s">
-        <v>183</v>
+      <c r="I8" s="148" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="2:61" ht="20">
-      <c r="B10" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="148"/>
-      <c r="N10" s="148"/>
-      <c r="O10" s="148"/>
-      <c r="P10" s="148"/>
-      <c r="Q10" s="148"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="148"/>
-      <c r="T10" s="148"/>
-      <c r="U10" s="148"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="148"/>
-      <c r="X10" s="148"/>
-      <c r="Y10" s="148"/>
-      <c r="Z10" s="148"/>
-      <c r="AA10" s="148"/>
-      <c r="AB10" s="148"/>
-      <c r="AC10" s="148"/>
-      <c r="AD10" s="148"/>
-      <c r="AE10" s="148"/>
-      <c r="AF10" s="148"/>
-      <c r="AG10" s="148"/>
-      <c r="AH10" s="148"/>
-      <c r="AI10" s="148"/>
-      <c r="AJ10" s="148"/>
-      <c r="AK10" s="148"/>
-      <c r="AL10" s="148"/>
-      <c r="AM10" s="148"/>
-      <c r="AN10" s="148"/>
-      <c r="AO10" s="148"/>
-      <c r="AP10" s="148"/>
-      <c r="AQ10" s="148"/>
-      <c r="AR10" s="148"/>
-      <c r="AS10" s="148"/>
-      <c r="AT10" s="148"/>
-      <c r="AU10" s="148"/>
-      <c r="AV10" s="148"/>
-      <c r="AW10" s="148"/>
-      <c r="AX10" s="148"/>
-      <c r="AY10" s="148"/>
-      <c r="AZ10" s="148"/>
-      <c r="BA10" s="148"/>
-      <c r="BB10" s="148"/>
-      <c r="BC10" s="148"/>
-      <c r="BD10" s="148"/>
-      <c r="BE10" s="148"/>
-      <c r="BF10" s="148"/>
-      <c r="BG10" s="148"/>
-      <c r="BH10" s="148"/>
-      <c r="BI10" s="148"/>
+      <c r="B10" s="151" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="151"/>
+      <c r="T10" s="151"/>
+      <c r="U10" s="151"/>
+      <c r="V10" s="151"/>
+      <c r="W10" s="151"/>
+      <c r="X10" s="151"/>
+      <c r="Y10" s="151"/>
+      <c r="Z10" s="151"/>
+      <c r="AA10" s="151"/>
+      <c r="AB10" s="151"/>
+      <c r="AC10" s="151"/>
+      <c r="AD10" s="151"/>
+      <c r="AE10" s="151"/>
+      <c r="AF10" s="151"/>
+      <c r="AG10" s="151"/>
+      <c r="AH10" s="151"/>
+      <c r="AI10" s="151"/>
+      <c r="AJ10" s="151"/>
+      <c r="AK10" s="151"/>
+      <c r="AL10" s="151"/>
+      <c r="AM10" s="151"/>
+      <c r="AN10" s="151"/>
+      <c r="AO10" s="151"/>
+      <c r="AP10" s="151"/>
+      <c r="AQ10" s="151"/>
+      <c r="AR10" s="151"/>
+      <c r="AS10" s="151"/>
+      <c r="AT10" s="151"/>
+      <c r="AU10" s="151"/>
+      <c r="AV10" s="151"/>
+      <c r="AW10" s="151"/>
+      <c r="AX10" s="151"/>
+      <c r="AY10" s="151"/>
+      <c r="AZ10" s="151"/>
+      <c r="BA10" s="151"/>
+      <c r="BB10" s="151"/>
+      <c r="BC10" s="151"/>
+      <c r="BD10" s="151"/>
+      <c r="BE10" s="151"/>
+      <c r="BF10" s="151"/>
+      <c r="BG10" s="151"/>
+      <c r="BH10" s="151"/>
+      <c r="BI10" s="151"/>
     </row>
     <row r="12" spans="2:61" ht="18.5">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="149"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
       <c r="K12" s="60"/>
       <c r="L12" s="35"/>
-      <c r="P12" s="149" t="s">
+      <c r="P12" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="149"/>
-      <c r="R12" s="149"/>
-      <c r="S12" s="149"/>
-      <c r="T12" s="149"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="152"/>
       <c r="U12" s="41"/>
       <c r="V12" s="41"/>
       <c r="W12" s="41"/>
@@ -8395,7 +8425,7 @@
       <c r="W13" s="15"/>
     </row>
     <row r="14" spans="2:61" ht="14.4" customHeight="1">
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="153" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="13"/>
@@ -8408,7 +8438,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
-      <c r="N14" s="150" t="s">
+      <c r="N14" s="153" t="s">
         <v>26</v>
       </c>
       <c r="P14" s="16"/>
@@ -8421,7 +8451,7 @@
       <c r="W14" s="16"/>
     </row>
     <row r="15" spans="2:61" ht="43.5">
-      <c r="B15" s="150"/>
+      <c r="B15" s="153"/>
       <c r="C15" s="13"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17" t="s">
@@ -8431,10 +8461,10 @@
         <v>52</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>13</v>
@@ -8443,12 +8473,12 @@
         <v>12</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="N15" s="150"/>
+        <v>167</v>
+      </c>
+      <c r="N15" s="153"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="30" t="s">
         <v>34</v>
@@ -8465,7 +8495,7 @@
       <c r="W15" s="16"/>
     </row>
     <row r="16" spans="2:61" ht="14.4" customHeight="1">
-      <c r="B16" s="150"/>
+      <c r="B16" s="153"/>
       <c r="C16" s="13"/>
       <c r="D16" s="16"/>
       <c r="E16" s="18">
@@ -8488,12 +8518,12 @@
         <v>43164</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="N16" s="150"/>
+        <v>151</v>
+      </c>
+      <c r="N16" s="153"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="31">
         <v>365</v>
@@ -8511,7 +8541,7 @@
       <c r="W16" s="16"/>
     </row>
     <row r="17" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B17" s="150"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="13"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -8522,7 +8552,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
-      <c r="N17" s="150"/>
+      <c r="N17" s="153"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
@@ -8533,7 +8563,7 @@
       <c r="W17" s="16"/>
     </row>
     <row r="18" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B18" s="150"/>
+      <c r="B18" s="153"/>
       <c r="C18" s="13"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17" t="s">
@@ -8552,13 +8582,13 @@
         <v>64</v>
       </c>
       <c r="J18" s="59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K18" s="74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L18" s="16"/>
-      <c r="N18" s="150"/>
+      <c r="N18" s="153"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
@@ -8569,34 +8599,33 @@
       <c r="W18" s="16"/>
     </row>
     <row r="19" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B19" s="150"/>
+      <c r="B19" s="153"/>
       <c r="C19" s="13"/>
       <c r="D19" s="16"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
       <c r="F19" s="28">
-        <f>E19/F16*100</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G19" s="57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="40">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J19" s="34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="79">
         <f>_xll.qlCalendarAdvance(B2,J16,K16,"following")</f>
         <v>44991</v>
       </c>
       <c r="L19" s="16"/>
-      <c r="N19" s="150"/>
+      <c r="N19" s="153"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
@@ -8607,7 +8636,7 @@
       <c r="W19" s="16"/>
     </row>
     <row r="20" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B20" s="150"/>
+      <c r="B20" s="153"/>
       <c r="C20" s="13"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -8618,7 +8647,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
-      <c r="N20" s="150"/>
+      <c r="N20" s="153"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
@@ -8629,30 +8658,30 @@
       <c r="W20" s="16"/>
     </row>
     <row r="21" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B21" s="150"/>
+      <c r="B21" s="153"/>
       <c r="C21" s="13"/>
       <c r="D21" s="16"/>
       <c r="E21" s="17" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>63</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
-      <c r="N21" s="150"/>
+      <c r="N21" s="153"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
@@ -8663,7 +8692,7 @@
       <c r="W21" s="16"/>
     </row>
     <row r="22" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B22" s="150"/>
+      <c r="B22" s="153"/>
       <c r="C22" s="13"/>
       <c r="D22" s="16"/>
       <c r="E22" s="18" t="s">
@@ -8671,23 +8700,23 @@
       </c>
       <c r="F22" s="18" t="str">
         <f>_xll.qlSwapIndex("SwapIndex",,I22,2,"EUR",E43,"1Y","Following",J22,EURIBORCurve!A123,EURIBORCurve!B64)</f>
-        <v>SwapIndex#0017</v>
+        <v>SwapIndex#0051</v>
       </c>
       <c r="G22" s="50">
         <v>2</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I22" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J22" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
-      <c r="N22" s="150"/>
+      <c r="N22" s="153"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
@@ -8698,7 +8727,7 @@
       <c r="W22" s="16"/>
     </row>
     <row r="23" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B23" s="150"/>
+      <c r="B23" s="153"/>
       <c r="C23" s="13"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -8709,7 +8738,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
-      <c r="N23" s="150"/>
+      <c r="N23" s="153"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
@@ -8720,7 +8749,7 @@
       <c r="W23" s="16"/>
     </row>
     <row r="24" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B24" s="150"/>
+      <c r="B24" s="153"/>
       <c r="C24" s="13"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17" t="s">
@@ -8737,7 +8766,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
-      <c r="N24" s="150"/>
+      <c r="N24" s="153"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
@@ -8748,16 +8777,16 @@
       <c r="W24" s="16"/>
     </row>
     <row r="25" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B25" s="150"/>
+      <c r="B25" s="153"/>
       <c r="C25" s="13"/>
       <c r="D25" s="16"/>
       <c r="E25" s="18" t="str">
         <f ca="1">Cashflows!E101</f>
-        <v>DE000A19W2L5Kupontermine#0018</v>
+        <v>DE000A19W2L5Kupontermine#0051</v>
       </c>
       <c r="F25" s="18" t="str">
         <f>_xll.qlFixedDividend(E31&amp;F24,I37,G37,,Trigger)</f>
-        <v>DE000A19W2L5Dividenden#0018</v>
+        <v>DE000A19W2L5Dividenden#0051</v>
       </c>
       <c r="G25" s="34">
         <v>1</v>
@@ -8767,7 +8796,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
-      <c r="N25" s="150"/>
+      <c r="N25" s="153"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
@@ -8789,7 +8818,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
-      <c r="N26" s="150"/>
+      <c r="N26" s="153"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
@@ -8811,7 +8840,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
-      <c r="N27" s="150"/>
+      <c r="N27" s="153"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
@@ -8826,7 +8855,7 @@
       <c r="C28" s="13"/>
       <c r="D28" s="16"/>
       <c r="E28" s="84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -8835,7 +8864,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
-      <c r="N28" s="150"/>
+      <c r="N28" s="153"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
@@ -8857,7 +8886,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
-      <c r="N29" s="150"/>
+      <c r="N29" s="153"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
@@ -8878,7 +8907,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
-      <c r="N30" s="150"/>
+      <c r="N30" s="153"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
@@ -8889,7 +8918,7 @@
       <c r="W30" s="16"/>
     </row>
     <row r="31" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B31" s="150" t="s">
+      <c r="B31" s="153" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="13"/>
@@ -8904,7 +8933,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
-      <c r="N31" s="150"/>
+      <c r="N31" s="153"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
@@ -8915,12 +8944,12 @@
       <c r="W31" s="16"/>
     </row>
     <row r="32" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B32" s="150"/>
+      <c r="B32" s="153"/>
       <c r="C32" s="13"/>
       <c r="D32" s="16"/>
       <c r="E32" s="18" t="str">
         <f ca="1">Cashflows!E101</f>
-        <v>DE000A19W2L5Kupontermine#0018</v>
+        <v>DE000A19W2L5Kupontermine#0051</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -8929,7 +8958,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="N32" s="150"/>
+      <c r="N32" s="153"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
@@ -8940,7 +8969,7 @@
       <c r="W32" s="16"/>
     </row>
     <row r="33" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B33" s="150"/>
+      <c r="B33" s="153"/>
       <c r="C33" s="13"/>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -8951,7 +8980,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
-      <c r="N33" s="150"/>
+      <c r="N33" s="153"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
@@ -8972,7 +9001,7 @@
       <c r="W34" s="13"/>
     </row>
     <row r="35" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B35" s="150" t="s">
+      <c r="B35" s="153" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="13"/>
@@ -8985,7 +9014,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
-      <c r="N35" s="150" t="s">
+      <c r="N35" s="153" t="s">
         <v>33</v>
       </c>
       <c r="P35" s="16"/>
@@ -8998,7 +9027,7 @@
       <c r="W35" s="16"/>
     </row>
     <row r="36" spans="2:23">
-      <c r="B36" s="150"/>
+      <c r="B36" s="153"/>
       <c r="C36" s="13"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17" t="s">
@@ -9019,7 +9048,7 @@
       </c>
       <c r="K36" s="77"/>
       <c r="L36" s="16"/>
-      <c r="N36" s="150"/>
+      <c r="N36" s="153"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
@@ -9030,7 +9059,7 @@
       <c r="W36" s="16"/>
     </row>
     <row r="37" spans="2:23">
-      <c r="B37" s="150"/>
+      <c r="B37" s="153"/>
       <c r="C37" s="13"/>
       <c r="D37" s="16"/>
       <c r="E37" s="50">
@@ -9047,11 +9076,11 @@
         <v>0</v>
       </c>
       <c r="J37" s="37">
-        <v>0.32050000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="K37" s="78"/>
       <c r="L37" s="16"/>
-      <c r="N37" s="150"/>
+      <c r="N37" s="153"/>
       <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
@@ -9062,7 +9091,7 @@
       <c r="W37" s="16"/>
     </row>
     <row r="38" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B38" s="150"/>
+      <c r="B38" s="153"/>
       <c r="C38" s="13"/>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -9073,7 +9102,7 @@
       <c r="J38" s="16"/>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
-      <c r="N38" s="150"/>
+      <c r="N38" s="153"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
@@ -9084,11 +9113,11 @@
       <c r="W38" s="16"/>
     </row>
     <row r="39" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B39" s="150"/>
+      <c r="B39" s="153"/>
       <c r="C39" s="13"/>
       <c r="D39" s="16"/>
       <c r="E39" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>30</v>
@@ -9099,7 +9128,7 @@
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
-      <c r="N39" s="150"/>
+      <c r="N39" s="153"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
@@ -9110,7 +9139,7 @@
       <c r="W39" s="16"/>
     </row>
     <row r="40" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B40" s="150"/>
+      <c r="B40" s="153"/>
       <c r="C40" s="13"/>
       <c r="D40" s="16"/>
       <c r="E40" s="38">
@@ -9126,7 +9155,7 @@
       <c r="J40" s="16"/>
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
-      <c r="N40" s="150"/>
+      <c r="N40" s="153"/>
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
@@ -9137,7 +9166,7 @@
       <c r="W40" s="16"/>
     </row>
     <row r="41" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B41" s="150"/>
+      <c r="B41" s="153"/>
       <c r="C41" s="13"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -9148,7 +9177,7 @@
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
-      <c r="N41" s="150"/>
+      <c r="N41" s="153"/>
       <c r="P41" s="16"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
@@ -9159,7 +9188,7 @@
       <c r="W41" s="16"/>
     </row>
     <row r="42" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B42" s="150"/>
+      <c r="B42" s="153"/>
       <c r="C42" s="13"/>
       <c r="D42" s="16"/>
       <c r="E42" s="17" t="s">
@@ -9172,7 +9201,7 @@
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
-      <c r="N42" s="150"/>
+      <c r="N42" s="153"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
@@ -9183,7 +9212,7 @@
       <c r="W42" s="16"/>
     </row>
     <row r="43" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B43" s="150"/>
+      <c r="B43" s="153"/>
       <c r="C43" s="13"/>
       <c r="D43" s="16"/>
       <c r="E43" s="20" t="str">
@@ -9197,7 +9226,7 @@
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
       <c r="L43" s="16"/>
-      <c r="N43" s="150"/>
+      <c r="N43" s="153"/>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
@@ -9218,7 +9247,7 @@
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
-      <c r="N44" s="150"/>
+      <c r="N44" s="153"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
       <c r="R44" s="16"/>
@@ -9229,7 +9258,7 @@
       <c r="W44" s="16"/>
     </row>
     <row r="45" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B45" s="150" t="s">
+      <c r="B45" s="153" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="13"/>
@@ -9248,7 +9277,7 @@
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
-      <c r="N45" s="150"/>
+      <c r="N45" s="153"/>
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
       <c r="R45" s="16"/>
@@ -9259,16 +9288,16 @@
       <c r="W45" s="16"/>
     </row>
     <row r="46" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B46" s="150"/>
+      <c r="B46" s="153"/>
       <c r="C46" s="13"/>
       <c r="D46" s="16"/>
       <c r="E46" s="19" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(E31&amp;E45,_xll.qlFlatForward(,0,E43,F37,G46,"Continuous","Annual",,Trigger),,Trigger)</f>
-        <v>DE000A19W2L5Dividendenrenditenkurve#0037</v>
+        <v>DE000A19W2L5Dividendenrenditenkurve#0103</v>
       </c>
       <c r="F46" s="19" t="str">
         <f>_xll.qlBlackConstantVol(E31&amp;F45,E16,E43,J37,G46,,Trigger)</f>
-        <v>DE000A19W2L5Volatilitätsfläche#0018</v>
+        <v>DE000A19W2L5Volatilitätsfläche#0051</v>
       </c>
       <c r="G46" s="19" t="s">
         <v>56</v>
@@ -9278,7 +9307,7 @@
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
-      <c r="N46" s="150"/>
+      <c r="N46" s="153"/>
       <c r="P46" s="16"/>
       <c r="Q46" s="32" t="s">
         <v>43</v>
@@ -9295,7 +9324,7 @@
       <c r="W46" s="16"/>
     </row>
     <row r="47" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B47" s="150"/>
+      <c r="B47" s="153"/>
       <c r="C47" s="13"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
@@ -9306,15 +9335,15 @@
       <c r="J47" s="16"/>
       <c r="K47" s="16"/>
       <c r="L47" s="16"/>
-      <c r="N47" s="150"/>
+      <c r="N47" s="153"/>
       <c r="P47" s="16"/>
       <c r="Q47" s="33" t="str">
         <f>_xll.qlGeneralizedBlackScholesProcess(E31&amp;Q46,F46,E37,G46,E16,E40,F37,,Trigger)</f>
-        <v>DE000A19W2L5Black-Scholes-Merton-Prozess#0017</v>
+        <v>DE000A19W2L5Black-Scholes-Merton-Prozess#0051</v>
       </c>
       <c r="R47" s="22" t="str">
-        <f>_xll.qlBinomialCoCoEngine(E31&amp;R46,Q47,S16,R16,J19,Trigger)</f>
-        <v>DE000A19W2L5pricing engine#0017</v>
+        <f>_xll.qlBinomialCoCoEngine(E31&amp;R46,Q47,S16,R16,AND(H19,J19),Trigger)</f>
+        <v>DE000A19W2L5pricing engine#0052</v>
       </c>
       <c r="S47" s="22" t="b">
         <f ca="1">_xll.qlInstrumentSetPricingEngine(Cashflows!I101,R47,Trigger)</f>
@@ -9326,7 +9355,7 @@
       <c r="W47" s="16"/>
     </row>
     <row r="48" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B48" s="150"/>
+      <c r="B48" s="153"/>
       <c r="C48" s="13"/>
       <c r="D48" s="16"/>
       <c r="E48" s="17" t="s">
@@ -9339,7 +9368,7 @@
       <c r="J48" s="16"/>
       <c r="K48" s="16"/>
       <c r="L48" s="16"/>
-      <c r="N48" s="150"/>
+      <c r="N48" s="153"/>
       <c r="P48" s="16"/>
       <c r="Q48" s="16"/>
       <c r="R48" s="16"/>
@@ -9350,12 +9379,12 @@
       <c r="W48" s="16"/>
     </row>
     <row r="49" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B49" s="150"/>
+      <c r="B49" s="153"/>
       <c r="C49" s="13"/>
       <c r="D49" s="16"/>
       <c r="E49" s="20" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(E31&amp;E48,_xll.qlFlatForward(,0,E43,E40,G46,"Continuous","Annual",,Trigger),,Trigger)</f>
-        <v>DE000A19W2L5Diskontkurve#0035</v>
+        <v>DE000A19W2L5Diskontkurve#0103</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
@@ -9364,7 +9393,7 @@
       <c r="J49" s="16"/>
       <c r="K49" s="16"/>
       <c r="L49" s="16"/>
-      <c r="N49" s="150"/>
+      <c r="N49" s="153"/>
       <c r="P49" s="16"/>
       <c r="Q49" s="16"/>
       <c r="R49" s="16"/>
@@ -9375,7 +9404,7 @@
       <c r="W49" s="16"/>
     </row>
     <row r="50" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B50" s="150"/>
+      <c r="B50" s="153"/>
       <c r="C50" s="13"/>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
@@ -9386,7 +9415,7 @@
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
       <c r="L50" s="16"/>
-      <c r="N50" s="150"/>
+      <c r="N50" s="153"/>
       <c r="P50" s="16"/>
       <c r="Q50" s="16"/>
       <c r="R50" s="16"/>
@@ -9411,22 +9440,22 @@
       <c r="N51" s="13"/>
     </row>
     <row r="52" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B52" s="151" t="s">
+      <c r="B52" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="147" t="str">
+      <c r="D52" s="150" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(R54)</f>
         <v/>
       </c>
-      <c r="E52" s="147"/>
-      <c r="F52" s="147"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="147"/>
-      <c r="K52" s="147"/>
-      <c r="L52" s="147"/>
-      <c r="N52" s="150" t="s">
+      <c r="E52" s="150"/>
+      <c r="F52" s="150"/>
+      <c r="G52" s="150"/>
+      <c r="H52" s="150"/>
+      <c r="I52" s="150"/>
+      <c r="J52" s="150"/>
+      <c r="K52" s="150"/>
+      <c r="L52" s="150"/>
+      <c r="N52" s="153" t="s">
         <v>15</v>
       </c>
       <c r="P52" s="16"/>
@@ -9439,7 +9468,7 @@
       <c r="W52" s="16"/>
     </row>
     <row r="53" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B53" s="151"/>
+      <c r="B53" s="154"/>
       <c r="D53" s="83" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E25)</f>
         <v/>
@@ -9452,7 +9481,7 @@
       <c r="J53" s="82"/>
       <c r="K53" s="82"/>
       <c r="L53" s="82"/>
-      <c r="N53" s="150"/>
+      <c r="N53" s="153"/>
       <c r="P53" s="16"/>
       <c r="Q53" s="16"/>
       <c r="R53" s="23" t="s">
@@ -9469,20 +9498,20 @@
       <c r="W53" s="16"/>
     </row>
     <row r="54" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B54" s="151"/>
-      <c r="D54" s="147" t="str">
+      <c r="B54" s="154"/>
+      <c r="D54" s="150" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(Cashflows!I101)</f>
         <v/>
       </c>
-      <c r="E54" s="147"/>
-      <c r="F54" s="147"/>
-      <c r="G54" s="147"/>
-      <c r="H54" s="147"/>
-      <c r="I54" s="147"/>
-      <c r="J54" s="147"/>
-      <c r="K54" s="147"/>
-      <c r="L54" s="147"/>
-      <c r="N54" s="150"/>
+      <c r="E54" s="150"/>
+      <c r="F54" s="150"/>
+      <c r="G54" s="150"/>
+      <c r="H54" s="150"/>
+      <c r="I54" s="150"/>
+      <c r="J54" s="150"/>
+      <c r="K54" s="150"/>
+      <c r="L54" s="150"/>
+      <c r="N54" s="153"/>
       <c r="P54" s="16"/>
       <c r="Q54" s="23" t="str">
         <f>P12</f>
@@ -9490,38 +9519,38 @@
       </c>
       <c r="R54" s="57">
         <f ca="1">_xll.qlInstrumentNPV(Cashflows!I101,S47)</f>
-        <v>102.27394802922188</v>
+        <v>79.791795681485752</v>
       </c>
       <c r="S54" s="26">
         <f ca="1">(R54/$R$55)-1</f>
-        <v>2.273948029221895E-2</v>
+        <v>-0.20208204318514245</v>
       </c>
       <c r="T54" s="24">
         <f>F19*E37/G25</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="U54" s="16"/>
       <c r="V54" s="16"/>
       <c r="W54" s="16"/>
     </row>
     <row r="55" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B55" s="151"/>
-      <c r="D55" s="147" t="str">
+      <c r="B55" s="154"/>
+      <c r="D55" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
         <v/>
       </c>
-      <c r="E55" s="147"/>
-      <c r="F55" s="147"/>
-      <c r="G55" s="147"/>
-      <c r="H55" s="147"/>
-      <c r="I55" s="147"/>
-      <c r="J55" s="147"/>
-      <c r="K55" s="147"/>
-      <c r="L55" s="147"/>
-      <c r="N55" s="150"/>
+      <c r="E55" s="150"/>
+      <c r="F55" s="150"/>
+      <c r="G55" s="150"/>
+      <c r="H55" s="150"/>
+      <c r="I55" s="150"/>
+      <c r="J55" s="150"/>
+      <c r="K55" s="150"/>
+      <c r="L55" s="150"/>
+      <c r="N55" s="153"/>
       <c r="P55" s="16"/>
       <c r="Q55" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R55" s="57">
         <v>100</v>
@@ -9533,7 +9562,7 @@
       <c r="W55" s="16"/>
     </row>
     <row r="56" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B56" s="151"/>
+      <c r="B56" s="154"/>
       <c r="D56" s="82"/>
       <c r="E56" s="82"/>
       <c r="F56" s="82"/>
@@ -9543,7 +9572,7 @@
       <c r="J56" s="82"/>
       <c r="K56" s="82"/>
       <c r="L56" s="82"/>
-      <c r="N56" s="150"/>
+      <c r="N56" s="153"/>
       <c r="P56" s="16"/>
       <c r="Q56" s="16"/>
       <c r="R56" s="16"/>
@@ -9554,7 +9583,7 @@
       <c r="W56" s="16"/>
     </row>
     <row r="57" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B57" s="151"/>
+      <c r="B57" s="154"/>
       <c r="D57" s="82"/>
       <c r="E57" s="82"/>
       <c r="F57" s="82"/>
@@ -9564,7 +9593,7 @@
       <c r="J57" s="82"/>
       <c r="K57" s="82"/>
       <c r="L57" s="82"/>
-      <c r="N57" s="150"/>
+      <c r="N57" s="153"/>
       <c r="P57" s="16"/>
       <c r="Q57" s="16"/>
       <c r="R57" s="16"/>
@@ -9798,7 +9827,7 @@
     <col min="13" max="13" width="15.81640625" style="63" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="19.7265625" style="63" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="7.81640625" style="63" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.36328125" style="153" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.36328125" style="146" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.26953125" style="62" customWidth="1"/>
     <col min="18" max="18" width="15.81640625" style="63" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="7.90625" style="68" bestFit="1" customWidth="1"/>
@@ -9827,29 +9856,29 @@
       <c r="B1" s="76"/>
       <c r="C1" s="76" t="str">
         <f>_xll.qlSchedule("ScheduleFix",XXX!J16,XXX!K19,XXX!L16,XXX!E43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>ScheduleFix#0018</v>
+        <v>ScheduleFix#0051</v>
       </c>
       <c r="D1" s="76" t="str">
         <f>_xll.qlSchedule("ScheduleFloat",XXX!K19,XXX!I16,XXX!H22,XXX!E43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>ScheduleFloat#0018</v>
+        <v>ScheduleFloat#0051</v>
       </c>
       <c r="E1" s="76"/>
       <c r="F1" s="76" t="str">
         <f>_xll.qlDiscountingSwapEngine("DiscSwapEngine",EURIBORCurve!B64,,EURIBORCurve!B78,EURIBORCurve!B78)</f>
-        <v>DiscSwapEngine#0017</v>
+        <v>DiscSwapEngine#0051</v>
       </c>
       <c r="H1" s="76" t="str">
         <f>_xll.qlSchedule("ScheduleFloatFix",XXX!K19,XXX!I16,XXX!I22,XXX!E43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>ScheduleFloatFix#0018</v>
-      </c>
-      <c r="I1" s="152" t="s">
-        <v>160</v>
-      </c>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
+        <v>ScheduleFloatFix#0051</v>
+      </c>
+      <c r="I1" s="155" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
       <c r="O1" s="62"/>
       <c r="R1" s="63" t="str">
         <f>_xll.ohRangeRetrieveError(E1)</f>
@@ -9858,55 +9887,55 @@
     </row>
     <row r="2" spans="1:37" ht="15" thickBot="1">
       <c r="A2" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>91</v>
-      </c>
       <c r="C2" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="79" t="s">
-        <v>87</v>
-      </c>
       <c r="E2" s="79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H2" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="I2" s="79" t="s">
-        <v>151</v>
-      </c>
       <c r="J2" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="K2" s="79" t="s">
-        <v>159</v>
-      </c>
       <c r="L2" s="79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M2" s="79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N2" s="79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O2" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="P2" s="154" t="s">
-        <v>182</v>
+        <v>145</v>
+      </c>
+      <c r="P2" s="147" t="s">
+        <v>181</v>
       </c>
       <c r="Q2" s="74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R2" s="64" t="str">
         <f t="array" aca="1" ref="R2:AK100" ca="1">_xll.qlBondFlowAnalysis(Cashflows!I101,XXX!J16,Übersicht!C27)</f>
@@ -10027,15 +10056,15 @@
       </c>
       <c r="J3" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E3,Cashflows!E3,_xll.qlCalendarAdvance("target",E3,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_43164#0018</v>
+        <v>KF_fix_43164#0051</v>
       </c>
       <c r="K3" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E3,Cashflows!E3,_xll.qlCalendarAdvance("target",E3,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_43164#0018</v>
+        <v>KF_float_43164#0051</v>
       </c>
       <c r="L3" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E3,,1,J3,1,XXX!$J$22,K3,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap43164#0017</v>
+        <v>Swap43164#0051</v>
       </c>
       <c r="M3" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L3,$F$1)</f>
@@ -10054,7 +10083,7 @@
       </c>
       <c r="Q3" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E3,P3,"Clean","Call",E3,,Trigger)</f>
-        <v>Kuendigungstermin43164#0018</v>
+        <v>Kuendigungstermin43164#0051</v>
       </c>
       <c r="R3" s="65">
         <f ca="1"/>
@@ -10172,15 +10201,15 @@
       </c>
       <c r="J4" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E4,Cashflows!E4,_xll.qlCalendarAdvance("target",E4,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_43529#0018</v>
+        <v>KF_fix_43529#0051</v>
       </c>
       <c r="K4" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E4,Cashflows!E4,_xll.qlCalendarAdvance("target",E4,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_43529#0018</v>
+        <v>KF_float_43529#0051</v>
       </c>
       <c r="L4" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E4,,1,J4,1,XXX!$J$22,K4,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap43529#0017</v>
+        <v>Swap43529#0051</v>
       </c>
       <c r="M4" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L4,$F$1)</f>
@@ -10199,7 +10228,7 @@
       </c>
       <c r="Q4" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E4,P4,"Clean","Call",E4,,Trigger)</f>
-        <v>Kuendigungstermin43529#0018</v>
+        <v>Kuendigungstermin43529#0051</v>
       </c>
       <c r="R4" s="65">
         <f ca="1"/>
@@ -10317,15 +10346,15 @@
       </c>
       <c r="J5" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E5,Cashflows!E5,_xll.qlCalendarAdvance("target",E5,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_43895#0018</v>
+        <v>KF_fix_43895#0051</v>
       </c>
       <c r="K5" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E5,Cashflows!E5,_xll.qlCalendarAdvance("target",E5,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_43895#0018</v>
+        <v>KF_float_43895#0051</v>
       </c>
       <c r="L5" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E5,,1,J5,1,XXX!$J$22,K5,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap43895#0017</v>
+        <v>Swap43895#0051</v>
       </c>
       <c r="M5" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L5,$F$1)</f>
@@ -10344,7 +10373,7 @@
       </c>
       <c r="Q5" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E5,P5,"Clean","Call",E5,,Trigger)</f>
-        <v>Kuendigungstermin43895#0018</v>
+        <v>Kuendigungstermin43895#0051</v>
       </c>
       <c r="R5" s="65">
         <f ca="1"/>
@@ -10462,15 +10491,15 @@
       </c>
       <c r="J6" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E6,Cashflows!E6,_xll.qlCalendarAdvance("target",E6,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_44260#0018</v>
+        <v>KF_fix_44260#0051</v>
       </c>
       <c r="K6" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E6,Cashflows!E6,_xll.qlCalendarAdvance("target",E6,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_44260#0018</v>
+        <v>KF_float_44260#0051</v>
       </c>
       <c r="L6" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E6,,1,J6,1,XXX!$J$22,K6,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap44260#0017</v>
+        <v>Swap44260#0051</v>
       </c>
       <c r="M6" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L6,$F$1)</f>
@@ -10489,7 +10518,7 @@
       </c>
       <c r="Q6" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E6,P6,"Clean","Call",E6,,Trigger)</f>
-        <v>Kuendigungstermin44260#0018</v>
+        <v>Kuendigungstermin44260#0051</v>
       </c>
       <c r="R6" s="65">
         <f ca="1"/>
@@ -10607,15 +10636,15 @@
       </c>
       <c r="J7" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E7,Cashflows!E7,_xll.qlCalendarAdvance("target",E7,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_44627#0018</v>
+        <v>KF_fix_44627#0051</v>
       </c>
       <c r="K7" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E7,Cashflows!E7,_xll.qlCalendarAdvance("target",E7,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_44627#0018</v>
+        <v>KF_float_44627#0051</v>
       </c>
       <c r="L7" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E7,,1,J7,1,XXX!$J$22,K7,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap44627#0017</v>
+        <v>Swap44627#0051</v>
       </c>
       <c r="M7" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L7,$F$1)</f>
@@ -10634,7 +10663,7 @@
       </c>
       <c r="Q7" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E7,P7,"Clean","Call",E7,,Trigger)</f>
-        <v>Kuendigungstermin44627#0018</v>
+        <v>Kuendigungstermin44627#0051</v>
       </c>
       <c r="R7" s="65">
         <f ca="1"/>
@@ -10752,15 +10781,15 @@
       </c>
       <c r="J8" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E8,Cashflows!E8,_xll.qlCalendarAdvance("target",E8,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_44991#0018</v>
+        <v>KF_fix_44991#0051</v>
       </c>
       <c r="K8" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E8,Cashflows!E8,_xll.qlCalendarAdvance("target",E8,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_44991#0018</v>
+        <v>KF_float_44991#0051</v>
       </c>
       <c r="L8" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E8,,1,J8,1,XXX!$J$22,K8,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap44991#0017</v>
+        <v>Swap44991#0051</v>
       </c>
       <c r="M8" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L8,$F$1)</f>
@@ -10779,7 +10808,7 @@
       </c>
       <c r="Q8" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E8,P8,"Clean","Call",E8,,Trigger)</f>
-        <v>Kuendigungstermin44991#0018</v>
+        <v>Kuendigungstermin44991#0051</v>
       </c>
       <c r="R8" s="65">
         <f ca="1"/>
@@ -10897,15 +10926,15 @@
       </c>
       <c r="J9" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E9,Cashflows!E9,_xll.qlCalendarAdvance("target",E9,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_45357#0018</v>
+        <v>KF_fix_45357#0051</v>
       </c>
       <c r="K9" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E9,Cashflows!E9,_xll.qlCalendarAdvance("target",E9,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_45357#0018</v>
+        <v>KF_float_45357#0051</v>
       </c>
       <c r="L9" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E9,,1,J9,1,XXX!$J$22,K9,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap45357#0017</v>
+        <v>Swap45357#0051</v>
       </c>
       <c r="M9" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L9,$F$1)</f>
@@ -10924,7 +10953,7 @@
       </c>
       <c r="Q9" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E9,P9,"Clean","Call",E9,,Trigger)</f>
-        <v>Kuendigungstermin45357#0018</v>
+        <v>Kuendigungstermin45357#0051</v>
       </c>
       <c r="R9" s="65">
         <f ca="1"/>
@@ -11042,15 +11071,15 @@
       </c>
       <c r="J10" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E10,Cashflows!E10,_xll.qlCalendarAdvance("target",E10,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_45722#0018</v>
+        <v>KF_fix_45722#0051</v>
       </c>
       <c r="K10" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E10,Cashflows!E10,_xll.qlCalendarAdvance("target",E10,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_45722#0018</v>
+        <v>KF_float_45722#0051</v>
       </c>
       <c r="L10" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E10,,1,J10,1,XXX!$J$22,K10,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap45722#0017</v>
+        <v>Swap45722#0051</v>
       </c>
       <c r="M10" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L10,$F$1)</f>
@@ -11069,7 +11098,7 @@
       </c>
       <c r="Q10" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E10,P10,"Clean","Call",E10,,Trigger)</f>
-        <v>Kuendigungstermin45722#0018</v>
+        <v>Kuendigungstermin45722#0051</v>
       </c>
       <c r="R10" s="65">
         <f ca="1"/>
@@ -11187,15 +11216,15 @@
       </c>
       <c r="J11" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E11,Cashflows!E11,_xll.qlCalendarAdvance("target",E11,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_46087#0018</v>
+        <v>KF_fix_46087#0051</v>
       </c>
       <c r="K11" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E11,Cashflows!E11,_xll.qlCalendarAdvance("target",E11,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_46087#0018</v>
+        <v>KF_float_46087#0051</v>
       </c>
       <c r="L11" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E11,,1,J11,1,XXX!$J$22,K11,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap46087#0017</v>
+        <v>Swap46087#0051</v>
       </c>
       <c r="M11" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L11,$F$1)</f>
@@ -11214,7 +11243,7 @@
       </c>
       <c r="Q11" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E11,P11,"Clean","Call",E11,,Trigger)</f>
-        <v>Kuendigungstermin46087#0018</v>
+        <v>Kuendigungstermin46087#0051</v>
       </c>
       <c r="R11" s="65">
         <f ca="1"/>
@@ -11332,15 +11361,15 @@
       </c>
       <c r="J12" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E12,Cashflows!E12,_xll.qlCalendarAdvance("target",E12,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_46454#0018</v>
+        <v>KF_fix_46454#0051</v>
       </c>
       <c r="K12" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E12,Cashflows!E12,_xll.qlCalendarAdvance("target",E12,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_46454#0018</v>
+        <v>KF_float_46454#0051</v>
       </c>
       <c r="L12" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E12,,1,J12,1,XXX!$J$22,K12,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap46454#0017</v>
+        <v>Swap46454#0051</v>
       </c>
       <c r="M12" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L12,$F$1)</f>
@@ -11359,7 +11388,7 @@
       </c>
       <c r="Q12" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E12,P12,"Clean","Call",E12,,Trigger)</f>
-        <v>Kuendigungstermin46454#0018</v>
+        <v>Kuendigungstermin46454#0051</v>
       </c>
       <c r="R12" s="65">
         <f ca="1"/>
@@ -11477,15 +11506,15 @@
       </c>
       <c r="J13" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E13,Cashflows!E13,_xll.qlCalendarAdvance("target",E13,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_46818#0018</v>
+        <v>KF_fix_46818#0051</v>
       </c>
       <c r="K13" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E13,Cashflows!E13,_xll.qlCalendarAdvance("target",E13,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_46818#0018</v>
+        <v>KF_float_46818#0051</v>
       </c>
       <c r="L13" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E13,,1,J13,1,XXX!$J$22,K13,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap46818#0017</v>
+        <v>Swap46818#0051</v>
       </c>
       <c r="M13" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L13,$F$1)</f>
@@ -11504,7 +11533,7 @@
       </c>
       <c r="Q13" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E13,P13,"Clean","Call",E13,,Trigger)</f>
-        <v>Kuendigungstermin46818#0018</v>
+        <v>Kuendigungstermin46818#0051</v>
       </c>
       <c r="R13" s="65">
         <f ca="1"/>
@@ -11622,15 +11651,15 @@
       </c>
       <c r="J14" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E14,Cashflows!E14,_xll.qlCalendarAdvance("target",E14,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_47183#0018</v>
+        <v>KF_fix_47183#0051</v>
       </c>
       <c r="K14" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E14,Cashflows!E14,_xll.qlCalendarAdvance("target",E14,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_47183#0018</v>
+        <v>KF_float_47183#0051</v>
       </c>
       <c r="L14" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E14,,1,J14,1,XXX!$J$22,K14,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap47183#0017</v>
+        <v>Swap47183#0051</v>
       </c>
       <c r="M14" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L14,$F$1)</f>
@@ -11649,7 +11678,7 @@
       </c>
       <c r="Q14" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E14,P14,"Clean","Call",E14,,Trigger)</f>
-        <v>Kuendigungstermin47183#0018</v>
+        <v>Kuendigungstermin47183#0051</v>
       </c>
       <c r="R14" s="65">
         <f ca="1"/>
@@ -11767,15 +11796,15 @@
       </c>
       <c r="J15" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E15,Cashflows!E15,_xll.qlCalendarAdvance("target",E15,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_47548#0018</v>
+        <v>KF_fix_47548#0051</v>
       </c>
       <c r="K15" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E15,Cashflows!E15,_xll.qlCalendarAdvance("target",E15,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_47548#0018</v>
+        <v>KF_float_47548#0051</v>
       </c>
       <c r="L15" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E15,,1,J15,1,XXX!$J$22,K15,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap47548#0017</v>
+        <v>Swap47548#0051</v>
       </c>
       <c r="M15" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L15,$F$1)</f>
@@ -11794,7 +11823,7 @@
       </c>
       <c r="Q15" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E15,P15,"Clean","Call",E15,,Trigger)</f>
-        <v>Kuendigungstermin47548#0018</v>
+        <v>Kuendigungstermin47548#0051</v>
       </c>
       <c r="R15" s="65">
         <f ca="1"/>
@@ -11912,15 +11941,15 @@
       </c>
       <c r="J16" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E16,Cashflows!E16,_xll.qlCalendarAdvance("target",E16,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_47913#0018</v>
+        <v>KF_fix_47913#0051</v>
       </c>
       <c r="K16" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E16,Cashflows!E16,_xll.qlCalendarAdvance("target",E16,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_47913#0018</v>
+        <v>KF_float_47913#0051</v>
       </c>
       <c r="L16" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E16,,1,J16,1,XXX!$J$22,K16,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap47913#0017</v>
+        <v>Swap47913#0051</v>
       </c>
       <c r="M16" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L16,$F$1)</f>
@@ -11939,7 +11968,7 @@
       </c>
       <c r="Q16" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E16,P16,"Clean","Call",E16,,Trigger)</f>
-        <v>Kuendigungstermin47913#0018</v>
+        <v>Kuendigungstermin47913#0051</v>
       </c>
       <c r="R16" s="65">
         <f ca="1"/>
@@ -12057,15 +12086,15 @@
       </c>
       <c r="J17" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E17,Cashflows!E17,_xll.qlCalendarAdvance("target",E17,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_48281#0018</v>
+        <v>KF_fix_48281#0051</v>
       </c>
       <c r="K17" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E17,Cashflows!E17,_xll.qlCalendarAdvance("target",E17,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_48281#0018</v>
+        <v>KF_float_48281#0051</v>
       </c>
       <c r="L17" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E17,,1,J17,1,XXX!$J$22,K17,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap48281#0017</v>
+        <v>Swap48281#0051</v>
       </c>
       <c r="M17" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L17,$F$1)</f>
@@ -12084,7 +12113,7 @@
       </c>
       <c r="Q17" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E17,P17,"Clean","Call",E17,,Trigger)</f>
-        <v>Kuendigungstermin48281#0018</v>
+        <v>Kuendigungstermin48281#0051</v>
       </c>
       <c r="R17" s="65">
         <f ca="1"/>
@@ -12202,15 +12231,15 @@
       </c>
       <c r="J18" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E18,Cashflows!E18,_xll.qlCalendarAdvance("target",E18,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_48645#0018</v>
+        <v>KF_fix_48645#0051</v>
       </c>
       <c r="K18" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E18,Cashflows!E18,_xll.qlCalendarAdvance("target",E18,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_48645#0018</v>
+        <v>KF_float_48645#0051</v>
       </c>
       <c r="L18" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E18,,1,J18,1,XXX!$J$22,K18,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap48645#0017</v>
+        <v>Swap48645#0051</v>
       </c>
       <c r="M18" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L18,$F$1)</f>
@@ -12229,7 +12258,7 @@
       </c>
       <c r="Q18" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E18,P18,"Clean","Call",E18,,Trigger)</f>
-        <v>Kuendigungstermin48645#0018</v>
+        <v>Kuendigungstermin48645#0051</v>
       </c>
       <c r="R18" s="65">
         <f ca="1"/>
@@ -12347,15 +12376,15 @@
       </c>
       <c r="J19" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E19,Cashflows!E19,_xll.qlCalendarAdvance("target",E19,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_49009#0018</v>
+        <v>KF_fix_49009#0051</v>
       </c>
       <c r="K19" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E19,Cashflows!E19,_xll.qlCalendarAdvance("target",E19,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_49009#0018</v>
+        <v>KF_float_49009#0051</v>
       </c>
       <c r="L19" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E19,,1,J19,1,XXX!$J$22,K19,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap49009#0017</v>
+        <v>Swap49009#0051</v>
       </c>
       <c r="M19" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L19,$F$1)</f>
@@ -12374,7 +12403,7 @@
       </c>
       <c r="Q19" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E19,P19,"Clean","Call",E19,,Trigger)</f>
-        <v>Kuendigungstermin49009#0018</v>
+        <v>Kuendigungstermin49009#0051</v>
       </c>
       <c r="R19" s="65">
         <f ca="1"/>
@@ -12492,15 +12521,15 @@
       </c>
       <c r="J20" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E20,Cashflows!E20,_xll.qlCalendarAdvance("target",E20,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_49374#0018</v>
+        <v>KF_fix_49374#0051</v>
       </c>
       <c r="K20" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E20,Cashflows!E20,_xll.qlCalendarAdvance("target",E20,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_49374#0018</v>
+        <v>KF_float_49374#0051</v>
       </c>
       <c r="L20" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E20,,1,J20,1,XXX!$J$22,K20,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap49374#0017</v>
+        <v>Swap49374#0051</v>
       </c>
       <c r="M20" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L20,$F$1)</f>
@@ -12519,7 +12548,7 @@
       </c>
       <c r="Q20" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E20,P20,"Clean","Call",E20,,Trigger)</f>
-        <v>Kuendigungstermin49374#0018</v>
+        <v>Kuendigungstermin49374#0051</v>
       </c>
       <c r="R20" s="65">
         <f ca="1"/>
@@ -12637,15 +12666,15 @@
       </c>
       <c r="J21" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E21,Cashflows!E21,_xll.qlCalendarAdvance("target",E21,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_49740#0018</v>
+        <v>KF_fix_49740#0051</v>
       </c>
       <c r="K21" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E21,Cashflows!E21,_xll.qlCalendarAdvance("target",E21,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_49740#0018</v>
+        <v>KF_float_49740#0051</v>
       </c>
       <c r="L21" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E21,,1,J21,1,XXX!$J$22,K21,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap49740#0017</v>
+        <v>Swap49740#0051</v>
       </c>
       <c r="M21" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L21,$F$1)</f>
@@ -12664,7 +12693,7 @@
       </c>
       <c r="Q21" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E21,P21,"Clean","Call",E21,,Trigger)</f>
-        <v>Kuendigungstermin49740#0018</v>
+        <v>Kuendigungstermin49740#0051</v>
       </c>
       <c r="R21" s="65">
         <f ca="1"/>
@@ -12782,15 +12811,15 @@
       </c>
       <c r="J22" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E22,Cashflows!E22,_xll.qlCalendarAdvance("target",E22,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_50105#0018</v>
+        <v>KF_fix_50105#0051</v>
       </c>
       <c r="K22" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E22,Cashflows!E22,_xll.qlCalendarAdvance("target",E22,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_50105#0018</v>
+        <v>KF_float_50105#0051</v>
       </c>
       <c r="L22" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E22,,1,J22,1,XXX!$J$22,K22,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap50105#0017</v>
+        <v>Swap50105#0051</v>
       </c>
       <c r="M22" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L22,$F$1)</f>
@@ -12809,7 +12838,7 @@
       </c>
       <c r="Q22" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E22,P22,"Clean","Call",E22,,Trigger)</f>
-        <v>Kuendigungstermin50105#0018</v>
+        <v>Kuendigungstermin50105#0051</v>
       </c>
       <c r="R22" s="65">
         <f ca="1"/>
@@ -12927,15 +12956,15 @@
       </c>
       <c r="J23" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E23,Cashflows!E23,_xll.qlCalendarAdvance("target",E23,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_50472#0018</v>
+        <v>KF_fix_50472#0051</v>
       </c>
       <c r="K23" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E23,Cashflows!E23,_xll.qlCalendarAdvance("target",E23,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_50472#0018</v>
+        <v>KF_float_50472#0051</v>
       </c>
       <c r="L23" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E23,,1,J23,1,XXX!$J$22,K23,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap50472#0017</v>
+        <v>Swap50472#0051</v>
       </c>
       <c r="M23" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L23,$F$1)</f>
@@ -12954,7 +12983,7 @@
       </c>
       <c r="Q23" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E23,P23,"Clean","Call",E23,,Trigger)</f>
-        <v>Kuendigungstermin50472#0018</v>
+        <v>Kuendigungstermin50472#0051</v>
       </c>
       <c r="R23" s="65">
         <f ca="1"/>
@@ -13072,15 +13101,15 @@
       </c>
       <c r="J24" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E24,Cashflows!E24,_xll.qlCalendarAdvance("target",E24,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_50836#0018</v>
+        <v>KF_fix_50836#0051</v>
       </c>
       <c r="K24" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E24,Cashflows!E24,_xll.qlCalendarAdvance("target",E24,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_50836#0018</v>
+        <v>KF_float_50836#0051</v>
       </c>
       <c r="L24" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E24,,1,J24,1,XXX!$J$22,K24,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap50836#0017</v>
+        <v>Swap50836#0051</v>
       </c>
       <c r="M24" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L24,$F$1)</f>
@@ -13099,7 +13128,7 @@
       </c>
       <c r="Q24" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E24,P24,"Clean","Call",E24,,Trigger)</f>
-        <v>Kuendigungstermin50836#0018</v>
+        <v>Kuendigungstermin50836#0051</v>
       </c>
       <c r="R24" s="65">
         <f ca="1"/>
@@ -13217,15 +13246,15 @@
       </c>
       <c r="J25" s="76" t="str">
         <f>_xll.qlSchedule("KF_fix_"&amp;E25,Cashflows!E25,_xll.qlCalendarAdvance("target",E25,XXX!$I$22,"following"),XXX!$H$22,"target","following","following","forward")</f>
-        <v>KF_fix_51200#0018</v>
+        <v>KF_fix_51200#0051</v>
       </c>
       <c r="K25" s="76" t="str">
         <f>_xll.qlSchedule("KF_float_"&amp;E25,Cashflows!E25,_xll.qlCalendarAdvance("target",E25,XXX!$I$22,"following"),EURIBORCurve!$A$125,XXX!$E$43,"following","following","forward",FALSE,,,,Trigger)</f>
-        <v>KF_float_51200#0018</v>
+        <v>KF_float_51200#0051</v>
       </c>
       <c r="L25" s="76" t="str">
         <f>_xll.qlVanillaSwap("Swap"&amp;+E25,,1,J25,1,XXX!$J$22,K25,EURIBORCurve!$A$123,0,EURIBORCurve!$A$124)</f>
-        <v>Swap51200#0017</v>
+        <v>Swap51200#0051</v>
       </c>
       <c r="M25" s="76" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(L25,$F$1)</f>
@@ -13244,7 +13273,7 @@
       </c>
       <c r="Q25" s="75" t="str">
         <f>_xll.qlCallability("Kuendigungstermin"&amp;Cashflows!E25,P25,"Clean","Call",E25,,Trigger)</f>
-        <v>Kuendigungstermin51200#0018</v>
+        <v>Kuendigungstermin51200#0051</v>
       </c>
       <c r="R25" s="65">
         <f ca="1"/>
@@ -24264,11 +24293,11 @@
     <row r="101" spans="1:37">
       <c r="E101" s="79" t="str">
         <f ca="1">_xll.qlScheduleFromDateVector(XXX!E31&amp;XXX!E24,OFFSET(Cashflows!E3,,,COUNT(Cashflows!E3:E100),1))</f>
-        <v>DE000A19W2L5Kupontermine#0018</v>
+        <v>DE000A19W2L5Kupontermine#0051</v>
       </c>
       <c r="I101" s="79" t="str">
         <f ca="1">_xll.qlCoCoGenericCouponBond(XXX!E31,,"EUR",XXX!F19/XXX!G25,XXX!F25:F25,OFFSET(Cashflows!Q3,,,COUNT(E3:E100)-1,1),XXX!F40,XXX!J16,0,OFFSET(Cashflows!O3,,,COUNT(E3:E100)-1,1),"act/365 (fixed)",XXX!E25,XXX!I19,XXX!H19,XXX!G19,XXX!J19,100)</f>
-        <v>DE000A19W2L5#0017</v>
+        <v>DE000A19W2L5#0051</v>
       </c>
     </row>
     <row r="102" spans="1:37">
@@ -36417,11 +36446,49 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Status xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">Not Started</_Status>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36593,49 +36660,11 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Status xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">Not Started</_Status>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36647,18 +36676,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95C4773B-DD53-4C8F-828C-26A8011A0795}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D94D478-C0CC-4E32-AB98-2A1279C93DB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fa7e5010-1311-4096-a344-326d1919664c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -36683,9 +36703,18 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D94D478-C0CC-4E32-AB98-2A1279C93DB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95C4773B-DD53-4C8F-828C-26A8011A0795}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fa7e5010-1311-4096-a344-326d1919664c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>